--- a/normalCounted11.xlsx
+++ b/normalCounted11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\מאגרים\נורמליים\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A27E806-86B3-4618-8AF6-B850CB43FD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE80033-5CC8-4289-BF49-DE801BA7C372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="666">
   <si>
     <t>Serie</t>
   </si>
@@ -508,18 +508,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-מחפשת חברות בעיר
-שלחו לי הודעה, אשמח לדבר</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Birdy</t>
-  </si>
-  <si>
-    <t>באר שבע - פוסט בקהילת נעים להכיר בכמוני | כמוני (camoni.co.il)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 בנות מהמרכז שרוצות להכיר חברות חדשות בגילאי 20-30 ומשהו מוזמנות להצטרף 🙏
 </t>
   </si>
@@ -916,41 +904,6 @@
   </si>
   <si>
     <t>עסיס</t>
-  </si>
-  <si>
-    <t>תיסלחו לי מה שאני עכשיו רושמת אולי מתפרקת .
-בטח תקבלו את זה בצורה לא חיובית אז איפו כן אפשר לכתוב .
-אתן רוצות חיובי .
-אז ככה
-אני מנסה לתפקד בכל הכוח כי אחרת זה גורם לי לעצבנות,במיוחד שאין לי תמיכה מה לעשות זה מה שקורא שגרים רחוק מכל המשפחה .
-אני מחפשת מתנדבת אחר הצהרים לפחות פעם בשבוע.
-למרות שקשה לי לצאת מהבית אפשר לנסות לצאת .כי אני סובלת מקור מופרז.
-אין יום שאני לא בוכה .בגלל הקשיים שיש לי .
-אין לי תמיכה זה כואב לי להגיד ולא יעזור כלום .אולי אני מבינה את הבנות שלי כי הן בעצמן במצב לא טוב.
-אני זקוקה למלווה לליווי לעירוי בבתי חולים זה בבוקר .
-אני קבלתי כסף מביטוח לאומי נראה מה הלאה .קשה לי מאוד .ולקחתי עזרה למה שאני צריכה ובכל זאת קשה לי .
-אולי תגידו לי איך אתן עוזרות לעצמכן לתפקד אמא וילדים בבית .עם אין עזרה אחרת .איך אתם עושים .מה החי יעיל אשמוח לשמוע
-למרות שאומרים שיש סרטן את חיבת להיות חיובית ושמחה ומאושרת .ואצלי הגוף הפך לרגיש מאוד.
-ואז מיד הבכי נימאס לי לבכות אני מרגישה שהעיניים שלי מתחילות להיות סגורות כבר עיניים קטנות .
-משתדלת .יש לי קושי בבית וכל הזמן אני צריכה לדאוג להם לאוכל. הן עזרו הבת בזמנו לא היה לה לימודים .הבנתי שביטוח לאומי לא עוזר כי אומר שיש ילדים גדולים בבית .חושבים ככה .וזה בכלל לא נכון . עזרו רק תקופה כימוטרפיה .
-האוירה אצלנו לא טובה בבית .על תגידו לי תלכו לתמיכה כי הן לא יסכימו ואין להם זמן .
-אחת לומדת עד הערב ויש מבחנים וסטודנטית .והיא לא רגועה בכלל ניראה לי אפילו דיכאון ולא טוב לה אצלנו בבית .
-אולי חד ולתמיד תגידו לי איפו אפשר למצוא חברה מלווה לאחר צהריים קצת לצאת מהבית
-למרות הקשיים והחולשה של הגוף אחרי כימוטרפיה .
-אני מוכנה להחזיר לתרום מזמני כשארגיש טוב בכיף ויעשה מצווה גדולה .
-אני לא מצליחה לשכנע את עצמי שאני אצא מהבית ואין לי מוטיבציה זה כבר שנים לא מעכשיו .
-אני בחורת בית .
-אין לי אחים ואחיות שגרים לידי בכלל .אין לי חברות לא שמרתי על קשרים ..פתאום שאני לא עובדת אני צמאה לחברה .
-כשפוגשים אותי ורואים אותי אומרים לי שאני בחורה מקסימה ונשמה טובה ואוהבת לעזור ולתמוך .
-אנחנו טובים לתמוך באחרים .
-אשמח לשמוע עם יש כאן מי שמוכנה להתנדב באזור רמת גן או תל אביב דרום .להליכה או למתקני ספורט. יאלה מי באה איתי מי מוכנה .
-סליחה על סגנון לא טוב .
-על תשכחו אני לא עובדת משנת 2002 ממחלות אחרות .פעם שחכתי את האותיות .היום אני מנסה לתפקד בכל הכוח ולעודד את עצמי ולדבר בקול רם ולעשות.
-אני לא זקוקה לרחמים ולא אוהבת שמרחמים עליי .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ARUIFVI</t>
   </si>
   <si>
     <t>בהפרש של שנתיים עברתי סרטן שד ימין ושמאל אני מחלחימה משנת 2008.לא נתתי לעצמי הנחות בעבודה,חזרתי אחרי שבוע אבל בבית בעלי החליט לעזור לי בהמון דברים ובזמן הפנוי חזרתי לצייר לקרוא ספרים ולעזור לחברות שעברו ועדיין עוברות מחלות .מאחלת לכולם שיצאו מהכל חזקים וטובים</t>
@@ -1147,34 +1100,6 @@
     <t>שמואל3</t>
   </si>
   <si>
-    <t xml:space="preserve">
-טוב, אני החלטתי לשתף אתכם בתזונה שלי שהשתנתה והשתדרגה כדי להתמודד עם הכאבים. טוב, לא תמיד זה עוזר, אבל לפחות האוכל בריא :)
-התפריט היומיומי שלי עשיר בחלבון דל שומן (עוף, חלב רזה), פירות וירקות, דגנים מלאים ושומנים טובים (למשל שמן זית ואגוזים).
-כבלוגרית של אוכל ומבקרת מסעדות אני הולכת לאכול במקומות רבים ומאד קשה לעמוד בפיתוי, אז לפעמים כמה חטאים קטנים של בשר אדום, וקינוחים עשירים בשוקולד וחמאה, אבל היי, זה מזור לנפש ומצב רוח טוב הוא משכך הכאבים מספר 1 בטבע!
-מעבר לתזונה, שמירה על שגרת ספורט קבועה (כולל התעמלות במים – הידרותרפיה) עוזרת לי מאד להפעיל את השרירים ולהתגבר על הכאב. אז כשכואב לי אני מתעמלת. זה קשה לבצע אבל שווה!
-מה אני אוכלת ולמה?
-מבחינתי הארוחה העיקרית ביום היא ארוחת הצהריים. בצהרים אני אוכלת מנת חלבון רזה (בדרך כלל עוף או דג) בתוספת פחמימה, דגן או קטניות וירקות. בדרך כלל מאדה את המזון או מקפיצה (טיגון-ערבוב) כמקובל במטבח האסייתי.
-בערב אני מעדיפה יוגורט עם גרנולה ופירות. גם צלחת מרק בייתי ועשיר מתקבלת בברכה בחורף.
-את הבוקר אני פותחת עם כוס קפה ומאפה קטן (פרוסת עוגה בחושה, עוגיות תוצרת בית). לא אני לא מסוגלת לאכול ארוחת בוקר של לחם מחיטה מלאה עם גבינה רזה ופלפל ירוק! אני לא נלחמת עם עצמי. מקשיבה לגוף שלי ולרגש שלי.
-ממה אני נמנעת?
-מאוכל מעובד, תעשייתי עם חומרים משמרים וצבעי מאכל. ממזונות עתירי שומן מן החי (כדוגמת נקניקים ונקניקיות), מכל מה שמטוגן בשמן עמוק (זהירות - חנוכה) וממזון צלוי ומעושן (זהירות - יום עצמאות)
-על מה אני מקפידה?
-ויטמין D - מחקרים גילו שקיים קשר הדוק בין רמה נמוכה של ויטמין D לבין כאב כרוני. דג הסלמון עשיר מאד בוויטמין D, וכך גם הגבינות ומוצרי החלב דלי השומן (יוגורט וכדומה).
-סיבים תזונתיים – שומרים על מערכת העיכול, משרים תחושת שובע ומסייעים לאיזון רמות כולסטרול (שגם מהם יש לי לא מעט, לצערי) . לכן, אני משתדלת לאכול דגנים מלאים (כגון – לחמים מקמח מלא, אורז מלא, גרנולה מדגנים מלאים, פסטה מקמח מלא ועוד), שהינם עשירים בסיבים תזונתיים.
-מגנזיום - מחקרים הוכיחו כי המגנזיום מסייע בהרפיית שרירים. חוסר במגנזיום עלול לגרום לכאבי שרירים והתכווצויות. מעבר לכך, למגנזיום תפקיד חשוב מאד בלמערכת העצבים ובייצור האנרגיה. היות ואני פעילה מאד וזקוקה לאנרגיה, אני מקפידה לאכול אגוזים, מוצרי חלב, תרד (ושאר ירקות ירוקים) ודגים העשירים במגנזיום.
-תבלינים טבעיים
-כורכום - אותו תבלין מוכר וצהוב, שסבתא שלי היתה מכניסה לאורז, ואמא שלי לתבשיל האפונה. עוד מקדמת דנא (נניח לפני 5000 שנה), ההודים השתמשו בכורכום ברפואה העתיקה שלהם – איורוודה. כבר אז הם ידעו שהוא מונע ולטענתם גם מטפל בדלקות! כיום, עם התפתחות המדע והחיפוש אחרי הוכחות קליניות, אנו יודעים כי הכורכומין, (החומר האחראי על הצבע הצהוב בכורכום) תורם להפחתת דלקות וכמובן להפחתת הכאבים הנלווים. ישנם חודשים בשנה בהם ניתן להשיג כורכום טרי (שורשים), ובשאר הזמן אבקה עושה את העבודה. גם שום פועל להפחתת תהליכים דלקתיים בזכות תרכובות הגופרית שבו. אני מודה שאני לא אוהבת שום וממעטת לצרוך אותו, אבל מי שאוהב הרוויח.
-ג\'ינג\'ר – גם הג\'ינג\'ר (זנגוויל) נמצא בשימוש ברפואה הסינית וההודית כבר אלפי שנים כטיפול בדלקות והפחתת כאבים. מחקרים מראים כי הג\'ינג\'ר מסייע לנו ב- 3 אופנים: הוא אנטי דלקתי, משכך כאבים טבעי (ע\"י הפחתת ריכוז הפרוסטגלנדינים) וגם שומר על הקיבה מפני ההשפעה המזיקה של תרופות לשיכוך כאבים. השורש הזה נמצא אצלי דרך קבע במקרר ואני מוסיפה ממנו לכל תבשיל כמעט. אני מכינה ממנו גם חליטות: כוס מים חמים עם פרוסת ג\'ינג\'ר, מקל קינמון (שגם לו סגולות) פלח לימון ויש לי כוס תה מפנקת לערבי החורף.
-שומן טוב - בניגוד ל\"שומנים הרעים\" אני נוהגת להשתמש בשמן זית - העשיר בנוגדי חמצון העוזרים לווסת גורמי הכאב בגוף. שומן טוב נוסף - אומגה 3 אותו ניתן למצוא בדגי מים עמוקים (סלמון, טונה, מקרל, סרדינים), זרעי פשתן, גרעיני דלעת, שמן קנולה.
-שתייה - הגוף צריך מים! צריכה רבה של מים מסייעת לתהליך האנטי דלקתי. המשקאות הבריאים ביותר: מים, חליטות צמחים, מיצים טבעיים וחלב רזה. גם כאן אני חוטאת מעת לעת... אני שותה מהמשקה השחור המוגז והאסור (או בשמו המפורש - דיאט קולה, אבל אל תגלו לאף אחד!)
-אפרופו שתייה, פעם פעמיים בשבוע אני נוהגת ללוות את ארוחות הערב שלי בכוס יין אדום. שהרי ידוע שהרסרבטרול שנמצא ביין, מסייע רבות לגוף שלנו ואני אומרת שגם לנפש! לחיים!
-זהו, עכשיו אתם יודעים עלי כמעט הכל. לא, אין לי קוריוזים לספר, אבל ההתייחסות שלי לתזונה ששומרת על הבריאות היא בהחלט חצי הכוס המלאה!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-אורלי כהן לבריאות</t>
-  </si>
-  <si>
     <t>כשהייתי ילדה היתה לי אסטמה,וכשאימי היתה מביאה לי כדור בלילה,הייתי מעיפה אותו מאחורי המיטה.עד היום אני מסרבת לקחת משככי כאבים למיניהם,אפילו בלידות לא קיבךתי כלום,והתעקשתי על לידה טבעית.האסטמה נעלמה אחרי גיל 10-11;מחלות חורף כמו שפעת או אנגינה פקדו אותי רק אחת לחמש שנים,בד\"כ המערכת החיסונית שלי מצויינת.בעשור האחרון התבשרתי שיש לי קצת ברזל נמוך,כולסטרול גבולי וסוכרת גבולית;כיוון שתמיד העדפתי תזונה טבעית,בחרתי לפנות לנטורופטית,ובהמלצתה הפסקתי לצרוך דברי חלב בקר,חיטה,שמרים ושומן רווי.במקום זה עברתי לגבינות עיזים,לחם שיפון;בשר אני אוכלת רק בשבתות וחגים,ותאמינו לי, אני ממש לא מפסידה כלום:אני גם יורדת במשקל ,מרגישה בריאה והערכים התאזנו ללא תרופות.
 בכל מקום אני מקבלת יחס מיוחד בגלל התזונה הבררנית,או שאני מצטיידת מראש.</t>
   </si>
@@ -1372,63 +1297,6 @@
     <t>https://www.facebook.com/groups/700976599949362/user/100006963130196/</t>
   </si>
   <si>
-    <t>פוסט שקיבלתי מחברה ואני מרגישה צורך להעלות לפייסבוק שכולם יראו!!!
-לכל האימהות והאבות שחזרו בתשובה והילדים שלהם סטו מהדרך, 
-לכל ההורים שקשה להם להשלים עם הדרך שהילדים שלהם בחרו הדרך שמנוגדת לדרך שלהם, הדרך שלא תואמת, הדרך שמביישת, הדרך של מה יגידו....
-לכל ההורים שהחליטו לוותר על הילדים שלהם למען העקרונות שלהם, למען האמונה שלהם, שבו ותקראו את המכתב המרגש הזה שכתב אב חרדי לבתו שחזרה בשאלה. 
-מכתב מרגש מאד ואני בטוחה שכל אמא שתקרא או כל אב שיקרא ירגיש כאילו הוא עצמו כתב את המכתב.
-בתי היקרה, 
-היום בשעה שאני צם, ישבתי וחשבתי על מה ולמה אנו צמים היום. 
-למה נחרב בית מקדשנו? 
-על מה השם נטש אותנו? 
-ומה עשינו שנכנסנו לגלות הארוכה הזו?
-תמיד ידעתי את התשובה אבל אף פעם לא הבנתי אותו כמו עכשיו:
-בית המקדש נחרב בגלל זה ששופטים את אלו שלא מתנהגים כמו שאנחנו רצינו שהם יתנהגו.
-בזה שאנחנו התביישנו מאלו שלא מתלבשים כמו שרצינו שהם יתלבשו.
-זה בגלל שאנו מסתכלים בגאוה על אלו שלא מדברים כמו שאנו רוצים שהם ידברו.
-והאגו שלנו גורם לנו לחשוב שאנו יותר טוב מהם.
-כל זה גרם לנו שבית המקדש ייחרב, ובעיקר להחריב את המקדש ששוכן בלבינו.
-בלי שיהיה לנו עין טובה ועין של הבנה לאלו שמסביבינו אנו לא ראויים שהשם יהיה בינינו.
-זרקנו את עצמינו ע״י מחשבות של צדק עצמי.
-איזה קבוצה מאיתנו גרם לחורבן?
-אלו שבתוך תווי הדרך (חרדים), או אלו שירדו מהדרך (יוצאים בשאלה)?
-על זה אני בוכיה... עיניי מלאים בדמעות... ההכרה הזו תפסה אותי ונחתה עלי כמו טון של בלוקים.
-לא אלו שלובשים גינס (לדוגמא) גרמו לחורבן,
-רק אלו שלא לובשים ומסתכלים בזלזול על אלו שכן לובשים גינס!
-אנו הם אלו שגרמו לחורבן בית המקדש
-ועוד לא מתקנים את החטא הזה!!
-על אף כל החיזוק בתורה ומצוות אנו רק מחזקים את החטא ולוקחים אותו לרמה הרבה יותר גבוהה!
-אני מביט על עצמי ושואל, האם אני לא חלק מהקבוצות שמשתמשים בדת היפה שלנו כדי לזלזל באחרים? 
-אם כן, אני לא מאלו האחראים על הגלות הנוכחית?
-מה שווה כל הצום והישיבה על הרצפה אם אני לא מסוגל להכיר ש״אני״ אחראי לכל הטרגדיה הזו?!
-עכשיו אני ממש מכיר בזה שלא את וחברות שלך הם המעכבים משיח מלבוא.. זה אני והחברים שלי!!
-אני כתבתי קינות משל עצמי: אוי לי שאני חוזר שוב ושוב על החטא המקורי שגרם את החורבן!
-אוי לי שאני דוקר את בשר ודם של עצמי!
-אוי לי שלקחתי את התורה הקדושה שצריכה להיות מתוקה ומרבה שלום. כתוב:״דרכיה דרכי נועם וכל נתיבותיה שלום״ והשתמשתי בו לדקור אותך ואחרים שוב ושוב!!
-וביום צום הארוך הזה אני מסתכל אחורה על הדרך שהתייחסתי עליך, ועל זה אני יושב ובוכה.
-בתי האהובה והיקרה עלי!! איך אני יכול לקחת את כל הצער שגרמתי לך ולהחזיר את הזמן לאחור?
-איך אני יכול להשלים את החיוכים והחיבוקים שהגיע לך, אבל לא קיבלת אותם ממני כי הייתי עסוק בלהצדיק למה מותר לי לזלזל בך ולהחריב בפועל את בית המקדש?
-איך אני יכול להחזיר לך את השנים האבודות?
-בתי יקירתי
-לפני המון המון זמן הסתכלתי על העתיד וחלמתי על היום שתגדלי, תתבגרי שתלמדי טוב ותסורי מרע, שתקומי מעצמיות שלך ותבואי את לבקש ממני סליחה.
-אך אחרי חיפוש פנימי ארוך ״אני״ גדלתי, ״אני״ התבגרתי, ״אני״ למדתי טוב ולסור מרע וסוף סוף אני קמתי מתוך עצמי ומתוך לדון את האחר, והיום זה היום שאני פונה אליך ומתחנן למחילה וסליחה!!!
-אני מקבל על עצמי להציף אותך עם אהבה, עם חיבוקים ונשיקות ולעשות ככל שביכולתי תמיד להיות כאן בשבילך!
-אני נשבע ומבטיח לעבוד מאוד מאוד קשה להשלים ולגשר על כל העוול שגרמתי לך. לא לזלזל בך ובחברות שלך או על כל יהודי אף פעם. 
-אני סיימתי לשפוט יהודי אחר.
-אני סיימתי לחשוב שאני יותר טוב מיהודי אחר בכל ישראל לא משנה מה הוא אומר מיהו . 
-אני סיימתי להיות חלק מהבעיה... ואני מבטיח שמהדקה זאת אני אהיה חלק מהפתרון.
-שרי שלי
-אנא ממך תפתחי לי את ליבך
-אנא ממך תפתחי את ידייך. תחבקי אותי חזק ותחזיקי לי את היד ובואי נבנה את בית המקדש ביחד...
-אבא שאוהב אותך.</t>
-  </si>
-  <si>
-    <t>Ruchama Hoch</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/700976599949362/user/1067114542/</t>
-  </si>
-  <si>
     <t>לפי לוח העברי בשבוע הזה יש תאריך יז'-תמוז, ולאור העובדה שאפילו ספרי ההלכה אמרו לא צריך לצום לדוגמה ספר 'מגן אברהם' [הנחשב אפילו לפי הרבנים הדתיים והחרדיים, ספר הלכתי טוב], הנדפס בתוך קובץ שולחן ערוך, וגם ספר בית יוסף כתב שהצומות כבר בוטלו כולל תשעה באב [ולא הוסיף שמישהו חידש אותם!!], וגם המשנה, שמנתה אסונות של יז' תמוז, לא חייבה לצום בסיבתם- לא נכון לפי ההלכה לחייב את התלמידים לצום בתאריך יז' תמוז של לוח העברי. 
 גרוע עוד יותר כי כבר הזהיר רב קארו בעצמו- ונשמרו דבריו בספר חיד"א, [נחשב רב טוב של ההלכה- מנהיג הלכתי] בשם רב קארו: שאם מלמדים הלכה מספר שולחן ערוך "בודאי יטעו אם לא מעיינים בספר בית יוסף" ונושא זה דוגמה- שמלמדים לפי ספר שולחן ערוך כאילו ההלכה מחייבת לצום, אך בספר בית יוסף כתב שבוטלו כנזכר.
 לאור כל האמור עלינו לשים לב לרוע הרבנים ללמד לצום- 
@@ -1953,16 +1821,6 @@
 אנחנו לפני קנית דירה ובודקים עלויות לראות אם זה בתקציב שלנו 
 תודה 🙏
 </t>
-  </si>
-  <si>
-    <t>היוש
-צלמו חדר השינה - השראה לעיצוב חדר שינה</t>
-  </si>
-  <si>
-    <t>Dganit Waininger</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/1960750107497306/user/566894434/?__cft__[0]=AZVOemt5lInF1hLsW0AbTRLd469YC0_n401mdJUedLhZcMxXUQRDI2NKsAbEcluqvIrrX7cbmjabSrDgFdLWboZJBQVe1Nllm-k3wUeGxH-b-42Kz0NadHmTNe9AqCSAsNCYvnBGhHSdZ_40hL-Gwt8H4ll2Cjd-pWs9gH9Xek5mzECHyEvrtk5p5Py265VhoVrDg0vdLiBnyO0rXnytwo5K&amp;__tn__=-UC%2CP-R</t>
   </si>
   <si>
     <t>רוצה לעצב את קיר הטלוויזיה בסלון. המזנון הקיים לא מתאים בעיני בפרופורציה ובסגנון. חושבת שצריך לעצב גם את הקיר.
@@ -2345,21 +2203,7 @@
     <t>https://www.facebook.com/groups/265893208051540/user/1250730921/?__cft__[0]=AZXn5lw57wnLRYtqTNUvrEQWpM0mfM4ohfFQQYTnWvgTMh7dj1xcA-3KviAzYAIeQbZY-v49_FPpRjA2R-f1Al746nAwuaJebXo40piGXaJRuFtwYTRtGpxWk0ORVL3NXzLqCj9y-NVddx9DB1n1xes69rCLZ2bfD5IJDeS3mfFxcIwLAILzFtKUVyG4G2kGzGJ7kQMTNeM5U_T42DJQKK8B&amp;__tn__=-UC%2CP-R</t>
   </si>
   <si>
-    <t>אשמח חוות דעת לאונדרו טבריה
-תודה לכולם 🙂</t>
-  </si>
-  <si>
-    <t>אופיר גל</t>
-  </si>
-  <si>
     <t>facebook / מדברים על בתי מלון בישראל - ללא פילטרים</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/639502990026879/user/100007407220816/?__cft__[0]=AZV1n8suubSkITU4mIb0HELzUnd4-K6owcTZq5aHyOWIkD8DTFFMhtpZ2DdJyMe73f-HMo_1aDeM1C0Rs1JFLRVS1eDRLpvM-mJaY-TL3G2Vr5M9g-Nm7dPNYOEEd6nt8FuEJfehytyL_HbuTEz8xNaDpBFWkJO0HegFKTAHj5fe4u35FadmtmubBabJmTdKW9VLxd6fksRYfyrovOzbsiw0&amp;__tn__=-UC%2CP-R</t>
-  </si>
-  <si>
-    <t>שוב אני-
-מלון ניקס הרצליה מותאם לילדים?</t>
   </si>
   <si>
     <t>Shira Tal Hirshenzon</t>
@@ -2552,33 +2396,6 @@
     <t>https://www.facebook.com/share/p/9v24FetTAwHMka4R/?mibextid=oFDknk</t>
   </si>
   <si>
-    <t>השבוע התנדבתי לאבטח את אלמוג מאיר בהלווית אביו, שעות ספורות אחרי שחזר משבי החמאס.
-את הסיפור של אלמוג קשה לתפוש גם אם העבודה שלך היא לכתוב סיפורים; אדם שחוזר מ-8 חודשים בשבי הגיהנום להלוויית אביו; ואבא שהיה זוכה לגאולה אם ליבו היה עומד בכאב רק עוד קצת.
-המציאות לא עלתה על הדימיון, היא השפילה אותו.
-הביטה בו מלמעלה והבהירה שכל מספר סיפורים הוא רק חיקוי מאוס של המקור.
-בני המשפחה והחברים שהגיעו נראו מבולבלים, לא בטוחים מה להרגיש. ואי אפשר להאשים אותם. ראיתי אותם, מציצים באלמוג מתחת למשקפי השמש השחורות כילד-רוח-רפאים.
-איך ניגשים לילד שאיבד את אביו? מה אומרים לאדם שהרגע חזר מהגיהנום לארץ מובטחת? ומה, אם בכלל אפשר לצמצם את זה למילים, מרגיש ילד שחווה את שניהם יחד?
-מתוקף התפקיד הייתי צמוד לאלמוג. לא אמרתי מילה, לא הנחתי יד, על אף שמעולם לא רציתי כל כך לחבק איש זר.
-תהיתי מה הנפש שלו אומרת עכשיו, האם יש תחושת חופש שמשתווה לשחרור מהשבי? האם יש עצב גדול מאיבוד הורה? האם הוא חש אשמה? אני כל כך מקווה שלא, לא מגיע לו.
-בהיתי בו ארוכות, ניסיתי לתפוש שמץ רגש, עווית פנים שתרמוז מה מתחולל בתוכו – ללא הצלחה. כל שראיתי היה ילד שחטף נוקאאוט מהמציאות, ועשה את הדבר היחיד שאפשר לעשות: לשחרר.
-ניכר שאלמוג לא ניסה להבין, נדמה שהוא בחר להתבטל מול החיים כאדם שרואה צונאמי ויודע שאין לו מה לעשות, רק לקבל שהמציאות, כמו הטבע, חזקה מהאדם.
-הוא עבר מבכי לצחוק, לרגע היה זקוף וחזק, ולרגע התפרק על כתף סמוכה.
-חשתי מידה של הזדהות. 
-כל ישראלי שליבו פועם יכול לחוש הזדהות.
-כשהתפזרנו עברה בי המחשבה שלאחרונה צ’אט GPT כותב לנו את המציאות, והיא צינית, קיצונית. קיצוצינית, חייכתי לרגע - ובדיוק אלמוג ניגש אליי. הוא לחש “תודה” והניח עליי יד. 
-זו הפעם הראשונה שהעיניים שלנו נפגשו. 
-קפאתי.
-קשה להסביר, אבל מעולם לא ראיתי כאלה עיניים. מבט של אדם שבזמן אמת חווה עצב תהומי והקלה קיצונית. אובדן וחופש. שתי קצוות שנסגרות לכדי מעגל רגשי-אנושי שלם.
-אנחנו נוטים להביט ברגשות כסקאלה כשבקצוות שלהן יש שמחה ועצב, אבל רגשות הן עיגול מושלם. ואם כך - קצותיו נפגשים. קראתי על זה, למדתי על זה, אבל זו הפעם הראשונה שאני רואה את זה. מרגיש את זה.
-במבט שלו לא הייתה אשמה, לא היה כעס, הייתה השלמה, קבלה של אי הוודאות הבלתי נמנעת שהיא הוודאי היחיד בחיינו.
-הסיפור של משפחת מאיר-ז’אן עוד יסופר במשך שנים,
-ואני אדע ששם, ברגע אחד של הצטלבות מבטים,
-הבנתי מדוע שמחה וכאב – מעולם לא היו הפכים.</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/story.php?story_fbid=883913803545799&amp;id=100057815629192&amp;mibextid=oFDknk&amp;rdid=iaAE1DqBI3Os1LQw</t>
-  </si>
-  <si>
     <t>מקור - כתבתי את הטקסט הזה על השואה והנאצים הארורים. דמיינתי את מחנות הריכוז, את קברי האחים, את הר הנעליים והעשן שעלה מהמשרפות.
 אבל השנה, כמו רבים אחרים, עולים מולי מראות אחרים. 
 שליחי שטן בין מלאכים רוקדים, קיבוצים בוערים, עופרת מפלחת לבבות בוערים.
@@ -2697,40 +2514,6 @@
     <t>https://www.facebook.com/story.php?story_fbid=518278943873449&amp;id=100070740445541&amp;mibextid=oFDknk&amp;rdid=8BZKoHlcm8vvBfTZ</t>
   </si>
   <si>
-    <t xml:space="preserve">איפפפפ מתי כבר יעבור הטרנד הזה של הרשתות החברתיות ?!?!
-זה לא בגלל שאני זקנה נרגנת שלא מבינה את הצעירים.. (כן, אני בהכחשת גיל 😅 אבל לא נרגנת בכלל ומחוברת לנוער שלנו בוורידים)
-אז למה???
-בגלל שכואב לי הלב על כל נערה שמגיעה אלי כי היא לא אוהבת את עצמה, היא לא נראית טוב בבגד ים כמו הבנות שמעלות תמונות כל הזמן ואז היא מפסיקה לאכול..
-זה כי כואב לי הלב על כל נערה שמספרת לי שהיא לא מביטה במראות, ממש בורחת מהן, בגלל שהיא לא נראית כמו הבנות שהיא עוקבת אחריהן באינסטה…
-זה כי כואב לי הלב על כל נערה שבאה לשיחה ומשתפת שהמערכת ההורמונלית שלה השתבשה, אחרי שהיא הפסיקה לאכול פחמימות, כי ככה
- עשתה זאת שהיא עוקבת אחריה וייעצה לאחרות …
-זה כי כואב לי הלב על כל נערה שמתארת לי את סדר היום שלה ומתברר שהיא לא אוכלת כלום ועושה ספורט בטירוף, כי מה שהולך היום זה מותן צרה ואגן רחב וכך חשבה שתשיג את המטרה עד שהלב שלה קרס…
-זה כי כואב לי הלב על הנערה שבדמעות מספרת לי שהיא ממש מפחדת לאכול פרוסת לחם
-זאת שמנסה לדחוף אצבע כי ״נפלה״ על פסטה או זאת שאם אין לה ירקות לאכול היא נכנסת לדיכאון …
-הנערות והנערים שלנו חיים בעידן שונה. 
-עידן בו אם אתה לא מעלה תמונה מחוייכת מהים אז אתה לא קיים.  
-הנערים והנערות שלנו שניזונים מהמסכים ולא יודעים שהתמונות שהם רואים הן לא המציאות !
-הבחורה שנראית להן מודל לחיקוי מכניסה את הבטן בלי לנשום כדי להראות טוב בתמונה.  היא לא נראית ככה כשהיא יושבת ללמוד או לאכול…
-האגן השרירי והחטוב בשלמות הוא זווית צילום הוא לא נראה ככה כשהיא עומדת בעמידה נוחה, רפויה וללא המצלמה.   
-הקוביות בבטן הן משחקי אור וצל, גם לבנות האלה יש כפלים, אבל הן בוחרות לא להראות את זה.  
-נכון, הגוף הוא העבודה שלי! 
-אבל הספורט לא נועד כדי לענות את עצמנו ב״שריפת קלוריות״. 
-ספורט הוא לא עונש על שום עוגה או גלידה או כל דבר אחר שאכלנו והצטערנו.  
-ספורט נועד לשמר אותנו חזקים ובריאים פיזית ונפשית.  
-תזונה נכונה לא נועדה כדי שכולנו נהלך דוגמנים ברחובות. 
-תזונה נכונה נועדה לשמור אותנו ממחלות בנות זמננו שהתפתחו מתזונה לקויה ולא מאוזנת.  
-אוכל זה לא דבר מפחיד
-אוכל זה דבר מהנה 
-אוכל זה לא מותרות 
-הלוואי שכבר יגיע טרנד חדש, זה שיראה את המציאות, את החיים האמיתיים, זה שיאפשר לכולם להרגיש אהבה והערכה עצמית תמיד ובכל מצב.  </t>
-  </si>
-  <si>
-    <t>עידית לוי - בריאות למרחקים ארוכים</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/story.php?story_fbid=4203837623059404&amp;id=1097644833678714&amp;mibextid=oFDknk&amp;rdid=Ys5q8puu0ifX66R0</t>
-  </si>
-  <si>
     <t>הקיטוב בארץ נדמה לנו כאירוע מקומי, קיצוני וייחודי לישראל. אבל ברחבי העולם, לאן שלא נביט, מתהווה אירוע חסר תקדים של קיטוב סביב נושאים שונים. 
 כי על אף שמושא הקיטוב נדמה לכל מדינה כבעל חשיבות של חיים ומוות - זו למעשה הדרך שבה אנחנו עוסקים בו, שהופכת אותו לכזה שקורע תרבויות שלמות.
 הסיבה להתפרקות השיח העולמי נובעת ממשתנים רבים, אבל בראשם עומד האלגוריתם של הרשתות החברתיות, שבאינטיליגנציה כמעט אנושית יודע - מה אנחנו רוצים להרגיש. 
@@ -2743,74 +2526,6 @@
   </si>
   <si>
     <t>https://www.facebook.com/story.php?story_fbid=820024536601393&amp;id=100057815629192&amp;mibextid=oFDknk&amp;rdid=rTdiXhZFzVM2QBIp</t>
-  </si>
-  <si>
-    <t>לפני שבועיים ביקרתי משפחה שכולה, הם סיפרו שמרים פרץ ביקרה אותם יום קודם, ודיברו בהתרגשות מפתיעה על המשמעות שמצאו בביקור שלה. למה, שאלתי, מה כל כך חיזק אתכם במפגש איתה? כל אחד מהם ציין משפט אחר שתפס אותו, וכשהגיע תורה של האמא, היא זכרה בעיקר משפט אחד:
-״שום שמחה כבר לא תהיה אותו דבר״.
-שתיקה פשטה בחצר הקטנה בשרון.
-דווקא זה? שאל האבא. היא הנהנה. למה? שאל, היא לא ידעה לענות. זה מה שנחרט לה מהשיחה, זה המשפט שהיא מצאה בו נחמה.
-בדרך הביתה הרהרתי במשפט הזה, מה כל כך חיזק אותה שם? מה מעודד בידיעה ששום שמחה לא תהיה אותו דבר?
-***
-השבוע, היה קשה לפספס, חגגתי 32.
-יום ההולדת הגיעה בימים קצת תקועים, תקופה כזו שאין בה נצחונות אישיים. הכל על הולד, אין שום פרויקט גדול באופק, משהו להמתין לו או להתרגש לקראתו. 
-והשילוב של הזדקנות וימים חסרי הגשמה יצר פחד רגעי שזהו, נגמר לי תור הזהב.
-בתגובה, לא מעט אנשים טענו ש״אלו השנים הכי כיפיות״, אבל זה לא הרגיש ככה. בכל זאת, על מי אתם עובדים, הגב כבר מתחיל לכאוב, ובכל פעם שאני אומר ״יאללה כוסאומו״ עומדות מול עיניי ההשלכות, 
-ובשונה מגילאי ה-20, כדי שאקום עם חמרמורת נדרשות רק שלוש כוסות. 
-באמכם, השנים הכי טובות? זה לא אמין ובהתאם - לא ממש מעודד. 
-אז שלשום, במסיבה שחתמה את שבוע היומולדת, הגשנו מרק בטטה לצד הוויסקי. בכל זאת, זקנים. הסתכלתי על כל החברים יושבים על כריות ואוכלים מרק, כמו לא היינו מעולם קרחניסטים שזקוקים לשטיפת קיבה בבוקר. ואט אט האבל על השנים שלא יחזרו הפך לחיוך קטן. כמה זה נחמד, שכולם מקשקשים ואוכלים יחד מרק בטטה. כן, זה זקן, אבל זה אני. 
-הבנתי שאני מבכה על חיים שאני כבר לא רוצה בהם, ימים שהיו נכונים לשעתם.
-אני משתנה והחיים שמתאימים לי משתנים יחד איתי.
-אין פה באמת קונפליקט, רק הכרה.
-ופתאום, בדרך מאוד משונה,
-הבנתי את הנחמה של האמא השכולה.
-זה לא עוזר להבטיח לה חיים אחרים, היא יודעת שכבר לא תחיה את אותם החיים. זה לא עוזר לומר ״יהיה בסדר״, היא לא רוצה שיהיה בסדר, היא רוצה שכל העולם ירגיש את הכאב. ולכן לומר לה ״עוד יהיו שמחות״ זה לא מעודד, להפך, זה מפחיד.
-אבל לומר לה - יהיו שמחות שירגישו אחרת - זו תקווה שאפשר לחבק. היא פותרת את הקונפליקט שבתוכה.
-מצד אחד - יש נחמה בהבנה שהחושך הנורא הזה יתפזר, שהחיים ימשיכו, שעוד יהיו שמחות. ומנגד, יש משהו מרגיע בידיעה שלמרות שהשמש תזרח - בנה לא יישכח.</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/asifelka/posts/pfbid02prSJYnfVWxEaARKzoBDy3vMDXnheUUa5vhYmcUpisjTFZWchdo6cgusD2r2Um6VTl</t>
-  </si>
-  <si>
-    <t>קשה.
-נשיפה.
-ככה מתחילה כל שיחה שניהלתי בשבועיים האחרונים.
-מעין מועקה נוראית שצצה לרגעים גם אצל האנשים הכי אופטימיים.
-ואני יודע שאולי לא מתאים להגיד אבל,
-אבל:
-זה מדהים איך כאיש אחד
-אומה שלמה התפכחה ברגע. 
-לפני קצת יותר משבועיים היינו מקוטבים באופן חסר תקדים, הקרע הכי משמעותי שידענו אי פעם. כל כך משמעותי, שרעיונות חסרי תקדים על ״היפרדות״ כבר הפכו ליותר ממחשבות.
-כבר מעל שנה שמלווה את עם ישראל תחושה נוראית, נדמה היה שהפאזל הציוני העדין מתחיל להתפרק, שזה סופו של עם הנצח. שנה שלמה הסתובבנו עם תחושה נוראית וניסינו להבין איך מתקנים את מה שנהרס.
-שנה שלמה לא הצלחנו.
-אלא שביום שבת השחור, בבוקר אחד שנדמה בעיניי כולנו ללילה - התחושה הזו התחלפה בתחושה נוראית אחרת. קיומית הרבה יותר.
-ומולה, באופן שלפ שבועיים ראו בצד השני אויבים, בוגדים.
-הכאב והפחד לא ממש אפשרו לנו לראות את זה,
-אבל קרה פה נס.
-תהליך שאף אנתרפולוג לא היה מזהה.
-תוך פחות משבועיים אומה שלמה התפכחה באחת. 
-הצעת חוק שאיימה לקרוע אותנו התאדתה, 
-קריאות לסרבנות הופרכו ב-150% של התגייסות, ו-10500 אחוז אם סופרים גם את ההורים והאחיות והחברות והדודות והחבר׳ה והסבא עם הקלישון שיצא לשמור על המושב.
-זה מדהים, ולמען האמת, זה קרה תוך פחות משבועיים.
-זה קרה תוך יומיים.
-קיבוצניק חילוני ולוחם צה״ל אומרים שמע ישראל משני צידי דלת, וליכודניק מושבע מגיע כל יום להתנדב באחים לנשק.
-חרדי מניח את הספר בצד ומבקש להיות חלק.
-כשהמכה כל כך קשה כל הגוף חווה את הכאב, גם אם מדובר בזרים גמורים. וזה כל כך זעזע את כל היסודות הבטוחים שהיו לנו, עד שכל דבר שהיה עבור רבים מאיתנו מאבק קיומי הפך למשהו של אחרי המלחמה, ברמת חשיבות של אחרי החגים. 
-אני יודע שעוד יש תחושות, וגם לצערי אנשים שמביעים אותם.
-ואני יודע שהרבה מזה עוד כאן וחלק גדול מהקונפליקטים יישארו כאן גם אחרי שננצח. אבל את האסון האזרחי שעמד לפנינו הצלחנו למנוע. וזה עצום. עבורי - זו הקלה על אמת.
-ואם להיות כנים, זה לא לקח שבועיים, גם לא יומיים, זה לקח לנו פחות משעתיים.
-פחות משעתיים לשכוח שנאה שנבנתה כאן במשך שנה.
-מה שמעיד על התובנה שכל ישראלי צריך לזכור היטב -
-האהבה שלנו לעמנו היא אינסטינקט, דחף. חוש טבעי ואוטומטי של העם הרדוף ההיסטוריה.
-הדחף הזה מעיד שאנחנו עדיין מה שהיינו פעם, העם ההוא שאהבנו. וחשוב מזה - 
-זה מעיד שהקרע שהיה פה בר חלוף וללא ספק פתיר.
-ושביסוד שלנו
-אנחנו באמת
-ראסמי,
-אוהבים אחד את השני.
-עם ישראל מתפכח.</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/asifelka/posts/pfbid0zxMGmKiXei8ngYGTKrfPg6Vmwnqm6ZHejUztUFKCrqx8bYujPL6Ydvx2PZS6fkxVl</t>
   </si>
   <si>
     <t>אתה לא גנרי
@@ -3037,50 +2752,7 @@
     <t>https://www.facebook.com/groups/645409222247058/posts/7859127897541785/</t>
   </si>
   <si>
-    <t>יצא לי ללוות במהלך השנים בוגרים וסטודנטים של  אוניברסיטאות (כולל הפתוחה והטכניון כמובן) עם ממוצע 90 פלוס.
-אני בוגר הטכניון עם ממוצע 82.
-לרוב מה ששמתי לב אצל סטודנטים ובוגרים עם הממוצעים האלה זה שיש להם אחת או יותר  מהתכונות הבאות:
-א. גאונות 
-ב. התמדה/דבקות במשימה
-ג. סקרנות גדולה/רצון עז להעמיק בחומר
-למען הסר ספק, אני לא  כותב שאחרים אין להם את התכונות האלה. תמשיכו לקרוא כדי להבין מה אני הולך לכתוב כאן בפוסט ועל טעות של חברות בימים האלה.
-יש  חברות , לא גאמפא, וגם לא תאגידים אמריקאים ליד גאמפא, שהחליטו לנצל את המצב.
-הן רוצות בוגרים או סטודנטים מ*אוניברסיטאות בלבד* עם ממוצע באיזור ה90  , ומעלה.
-אני לא הולך לכתוב שמות, לא מאמין בשיימינג, ואני בטוח שרבים פה יודעים על איזה חברות מדובר.
-החברות לא יודעות שבוגרי אונ׳ בחברות המובילות , מרוויחים היום תנאי השתכרות של 35,000  שח וצפונה ואני מדגיש את המלים *תנאי השתכרות*  שכוללים מניות מונפקות ו*צפונה* - כלומר, גם מעבר ל35,000 שח.
-החברות האלה פעמים רבות הן חברות לא מונפקות. 
-הן בונות על זה שמספר התקנים לבוגרים וסטודנטים בחברות שהן ״בעלות מוניטין״  ומשלמות גבוה , הוא מוגבל.
-הן גם יודעות שאפשר להתקבל לגאמפא למשל גם בלי ממוצע 90 פלוס.  
-אז בעצם , למה הן מכוונות? לאנשים שהיה להם תזמון גרוע ולא סיימו  את התואר כשהיו משרות פתוחות בחברות המובילות בעולם ? על זה שהם נכשלו בראיונות בחברות האלה ואין להם הצעה אחרת?
-לא ברור.
-אני אספר לכם, ופה החלק המעניין , מה הטעות שלהן.
-לרבים החבר׳ה שהזכרתי שיש סוג של ״דרייב״ שמשולב בתחרתיות.
-ניקח שם פיקטיבי - ינון ישראלי. ינון בוגר אונ׳ עם ממוצע 90 פלוס, שעובד לא בגאמפא או בתאגיד אחר. הוא עובד בחברת סטרטאפ.
-הוא יודע שנופר כהן  (שם בדוי) התקבלה למשל למיקרוסופט עם ממוצע פחות משלו, ומרוויחה יותר ממנו.  משמעותית יותר. הוא קרע את ה*** בלימודים והנה , הוא מרוויח פחות ממנה. ולא באלף שח, ולא באלפיים שח, אלא בכמה אלפי שקלים טובים יותר, ואין לו מניות ולה יש מניות. ואפשר להמשיך.
-ינון חם על ליטקוד, אתם חושבים שינון הפסיק לללטקד ולהתכונן? ינון לא יוותר לעצמו עד שלא יגיע לחברות הנוצצות, ותתפלאו כמה בוגרים מצטיינים של המוסדות האלה אני מכיר שזה המיינד סט שלהם. להוכיח להם ולסביבה שהם יכולים.
-אז כל החברות האלה, שמרימות את הרף ורוצות בוגרים ״חזקים״ עם ״90 פלוס״ וקשקושים כאלה מאונ׳ - דעו לכם שחלק גדול  מהם ממשיכים ללטקד כדי לשפר עמדות. אולי מישהו עם ממוצע נמוך יותר , שהיה עובר את הרעיוונות כמובן, היה עדיף לגיוס ?</t>
-  </si>
-  <si>
     <t>Yair Zaslavsky</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/645409222247058/posts/7854527598001815/</t>
-  </si>
-  <si>
-    <t>פיתוח פולסטאק זה אחד התחומים שיש עליהם כמות עצומה של חומר, חלקו איכותי וחלקו לא.
- למעשה כשאתם בונים פרוייקטים, ואתם נותנים גישה ציבורית לרפוזיטוריז שלכם, אולי אתם נותנים עוד ״מזון״ לבינה המלאכותית היצרנית?
-כשפרינלסרים של פולסטאק כותבים בלוגים טכניים כדי להראות לכלל היבור שכדאי לעבוד איתם - אולי הם נותנים עוד ״מזון״ לבינה המלאכותית היצרנית?
-הבינה המלאכותית איתנו להשאר. תחום פיתוח הפולסטאק הולך להשתנות מאוד ,כנראה בתקופה הקרובה. אני לא כותב שהוא הולך להעלם, אבל הוא הולך להשתנות.
-איך ישתנה? אני לא יודע, אבל אני רואה את השיפור של קלוד בכתיבת קוד שקשור לפולסטאק וגם את השיפור של צ׳אט ג׳י פי טי, בין אם בגרסאות 4o ואנטרפרייז.
-אני יכול לספר לכם  שאני  מפתח בימים אלה דברים במסגרת העסק שאני שותף בו.  אני גם הצעתי התמחות בתשלום , היה לי סט משימות מוגדרות היטב שרציתי לפתח, והייתי צריך עוד ידיים עובדות. אבל אחרי שני סירובים , כי המשימות ״לא היו רק פיתוח״ נתתי את המשימות לבינה מלאכותית יצרנית, ויש לי מעל ל90 אחוז מהדברים שאני צריך מוכנים.
-אני אמשיך לטעון - מפתחי תוכנה טובים ש״שורדים״ לאורך הקריירה הם מפתחי תוכנה ורסטיליים, שמפתחים עם השנים עוד יכולות.
-לא תמיד תוכלו ללמוד את היכולות האלה בעבודה שלכם, כי בסופו ש לדבר העבודה שלכם היא עסק ששורת הרווח שלו חשובה לו , ואם נודה באמת, יותר מההתפתחות האישיות שלכם, ולכן כתיבת קוד בעבודה היא לא תוכנית כבקשתך.
-האם תרגול מעבר לשעות העבודה עוזר? תלוי, אם תבנו פרוייקט מספיק משמעותי
-אני לא כותב שיש פה איזה פתרונות קסם, חשוב לי שתהיו מודעים לזה.
-במיוחד כשאתם שומעים על עוד קורס פול סטאק, איכותי ככל שיהיה, כ״מכשיר כניסה לתעשיה״.</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/645409222247058/posts/7814371662017409/</t>
   </si>
   <si>
     <t>שלום, אשמח לייעוץ.
@@ -3307,6 +2979,177 @@
   </si>
   <si>
     <t>Min</t>
+  </si>
+  <si>
+    <t>שלום לכולם
+לפני השאלה אציין שדיברתי עם יועצים ובכל זאת אשמח לשמוע דעתכם
+יש ברשותי דירה ללא משכנתא שנקנתה עבורי ועכשיו אני גר בה
+ששוויה 1.7
+ירשתי חצי דירה ששוויה 3 מיליון,כלומר 1.5 החלק שלי
+ועוד 250 אלף שח במזומן מקופות השקעה שהייתי המוטב
+איך הכי נכון לדעתכם לנהל או להשקיע את ההון</t>
+  </si>
+  <si>
+    <t>יוגב </t>
+  </si>
+  <si>
+    <t>AskPeople</t>
+  </si>
+  <si>
+    <t>www.askp.co.il</t>
+  </si>
+  <si>
+    <t>https://www.askp.co.il/question/385127</t>
+  </si>
+  <si>
+    <t>https://www.askp.co.il/question/385010</t>
+  </si>
+  <si>
+    <t>ג </t>
+  </si>
+  <si>
+    <t>היי, אחד החברים של אבא שלי אמר לי שאין טעם שיהיה שם כסף, זה היה ממזמן אז אני לא זוכרת מה הסיבה שהוא אמר את זה.. זה נשמע לי קצת מוזר האמת אבל אולי הוא כן צודק? אני אשמח לקרוא מה דעתכם..</t>
+  </si>
+  <si>
+    <t>היי,
+לפני כשנה ניסיתי לפתוח חשבון בבנק הפועלים אינטרנטית. הקליטה התנתקה בדיוק בהגדרת הסיסמא וכנראה נשמרה איזו ברירת מחדל רנדומלית, כי מאז לא הצלחתי להתחבר אבל החשבון קיים. אין בו כסף מן הסתם אז התעלמתי מזה מאז. יש דרך שזה יתנקם בי?</t>
+  </si>
+  <si>
+    <t>דניאל </t>
+  </si>
+  <si>
+    <t>https://www.askp.co.il/question/384905</t>
+  </si>
+  <si>
+    <t>https://www.askp.co.il/question/384860</t>
+  </si>
+  <si>
+    <t>ענבר </t>
+  </si>
+  <si>
+    <t>האם אתם חושבים שעומד להיות פה משבר כלכלי שלא נראה כמותו במדינה?
+האם כדאי להוציא את הכסף כמה שיותר מהר מישראל, לפני שהשקל יפול ויהיו הגבלות על הוצאת מטבע זר.
+או שיהיה מצב שהבנקים לא יאפשרו למשוך את הכספים שנמצאים בבנק, כמו שקורה לדוגמה עכשיו בלבנון.
+לא מאמינים, זה בדיוק מה שקרה בשנות ה80 אחרי מלחמת לבנון הראשונה, הוצאות הממשלה תפחו, השקל הישן לא היה שווה שום דבר, הממשלה הגבילה את הוצאת המטבע הזר מהמדינה וכל מה שלא היה צמוד לדולר הפך לחסר ערך.
+רק שנראה שאז המצב הגיאופוליטי של ישראל היה יותר טוב והיה סכוי טוב יותר לצאת מהמשבר, עכשיו נראה שאף גורם עסקי שפוי מחו"ל לא יסכים לעשות עסקים חדשים עם ישראל, מה שיש זה נסיעה על אדי הדלק של ההשקעות שעשו פה בעבר.
+גם לא נראה סביר שהממשלה תצליח או שמעוניינת לעשות מהלך רדיקלי כמו תוכנית הייצוב של 85 כדי לצאת מהמשבר.
+לאור זאת האם הדבר החכם לעשות הוא למכור את הדירה כאשר המחיר שלה בשקלים עוד שווה משהו במטבע זר ולהוציא את החסכונות לחשבון בנק בחו"ל?
+איך עושים את זה?
+האם ניתן פשוט לפתוח חשבון בבנק גדול בחו"ל ולעשות העברה בנקאית של הכסף?
+איך זה עובד מבחינת מיסוי?
+אפשר אחרי זה להוציא כרטיס אשראי לחשבון בנק בחו"ל ולהשתמש בו כרגיל, כמו בכרטיס ביו לאומי?</t>
+  </si>
+  <si>
+    <t>שלום, אני מעוניינת לקנות רכב ראשון, אח שלי אמר לי שכדאי לי לקנות רכב בסביבות 15,000 שקל וחבר של אבא שלי אמר לי שכדאי לי לקנות רכב בסביבות 30,000 שקל.. באיזה סכום לדעתכם כדאי שאקנה את הרכב?</t>
+  </si>
+  <si>
+    <t>א</t>
+  </si>
+  <si>
+    <t>https://www.askp.co.il/question/384721</t>
+  </si>
+  <si>
+    <t>https://www.askp.co.il/question/384618</t>
+  </si>
+  <si>
+    <t>הוצאתי רישיון לפני כשנתיים ורכשתי רכב ישן וזול. הרכב עבר שיפוץ ברמה בינונית אחרי מכה מקדימה.
+ואז אני איכשהו פספסתי מדרכה פעם אחת בחניה, ככה שנגעתי עם הפגוש במדרה ונוצר סדק, שהיה קודם אבל פשוט כיסו אותו בזמן השיפוץ ככה לא יראו. עכשיו ישר רואים שהרכב אחרי תאונה.
+מצד שני, הרכב יד 3 כבר, אחרי שהיה אצלי שנתיים הוא עדיין 120 אלף ק"מ. נוסע מעולה, עובר טיפולים כמו שצריך. חוץ מטיפולים ודברים קטנים היה במוסך פעם אחת. שנתון 2010 ונוסע כמו חדש. חסכוני, אמין. מצבר, בלמים וצמיגים חדשים.
+אז אני מתלבט. מצד אחד אני רוצה רכב יותר חדש ביום מן הימים. כי לרכב שלי אין מוליטימידה נורמלית, אין חיישני רוורס, אין מוביל איי, אין "פינוקים" והוא נראה טרנטה ישנה. טוב שיש דיבורית עם חיבור בלו תוס אז יש מוזיקה מהטלפון.
+מצד שני, לך תמכור רכב כזה. רואים עליו שהוא אחרי תאונה. לא איזה משהו מפחיד, אבל לא נראה לי שמישהו ירצה לקנות אוטו שעבר תאונה. אולי עדיף לנצל את הרכב "עד הסוף" כלומר לנהוג בו עד שהוא יגיע למצב של הורדה מהכביש עקב התיישנות?
+מה עדיף?</t>
+  </si>
+  <si>
+    <t>אני כרגע בהליך גירושין נמצא בנתיים ביחידת דיור של קרוב משפחה ועומד לצאת משם עוד שבוע כי הוא מכניס לשם דיירים . הדירה שבה גרתי עם אשתי ו3 הילדים שלי היא שכורה עוד 3 חודשים גם היא יוצאת מהדירה הרכוש המשותף ימכר ונגמר הסיפור
+כרגע יש לי איזשהו סכום כסף בצד שמצד 1 בלתי אפשרי לקנות איתו דירה אבל קרוואן כן
+נמאס לי להוציא סכומים גבוהים על שכירות שכנראה יחד עם המזונות ושאר ההוצאות אני לא יוכל לעמוד בהם לאורך זמן וזה יוביל למצב שאני אמצא את עצמי בבית של ההורים או ברחוב
+בגלל זה חשבתי על האופציה של הקרוואן
+אני רוצה לשמוע מאנשים שגרים או גרו בקרוואן
+כמה הוצאות בחודש יש להם על המים והחשמל מהגנרטור ואיך אתם מסתדרים מבחינת מציאת מקום חנייה בתוך שטח העיר , כי אני מעדיף להיות בתוך העיר ושגם לילדים יהיה יותר קרוב
+ויש לי שאלה שמופנת בעיקר לדיירי קרוואנים מהצפון מה אתם עושים במצב של נפילות טילים ?
+אני מתכוון כרגע להשאר בצפון קרוב לילדים
+הקרוואן שאני שוכל לקנות הוא מינבוס שהוסב לקרוואן מדגם מרצדס ספרינטר שנת 2005 עם מערכת חשמל סולארית מקלחת ושירותים אורגנים
+איך הדגם הזה מבחינת צריכת דלק ושאר עלויות ההחזקה ואם כדאי בכלל ללכת על קרוואן נגרר ?</t>
+  </si>
+  <si>
+    <t>אנונימי </t>
+  </si>
+  <si>
+    <t>https://www.askp.co.il/question/384489</t>
+  </si>
+  <si>
+    <t>אנחנו גרים בבית די רגיל, חוץ מזה שהמרפסת ענקית ושם יש ספות
+ומקום בשבילי, מיטה ארון וזה לא ממש חדר כי אין דלת, תקרה או קירות אבל יש וילונות כאלה וזכוכיות
+כשחם לי אני פורשת שמיכה בצד של המטבח כי הוא ענקי והספות בחוץ וחם שם, ואני פשוט נרדמת ככה בלי כרית, מיטה וכו ובלי בלאגן
+זה די מסובך אבל העירייה לא מסכימים לעשות שם חדר ולי אין ממש מקום אחר לישון בו, וכשחם לי מתחיל לכאוב לי הראש וממש חם לי בקיץ
+וההורים שלי צועקים עליי שאני לא יכולה לישון פשוט ככה וזה לא בסדר אבל אין לי מקום אחר ואני לא יכולה לישון בחדר של אח שלי כי אין שם מקום, וממש מסריח שם והוא משחק בפלסטיישן ומרעיש ממש
+מי לדעתכם צודק?</t>
+  </si>
+  <si>
+    <t>אנונימית </t>
+  </si>
+  <si>
+    <t>https://www.askp.co.il/question/381515</t>
+  </si>
+  <si>
+    <t>אז ככה התחלתי לצאת עם לוחם ביחידה מובחרת, יצאנו כבר כמה פעמים והוא הכי חמוד בעולם ומשקיע
+וכזה ויש חיבור ממש,
+עד עכשיו זה הסתדר לנו והוא יצא כל הזמן אבל עכשיו חוזר להילחם ליותר מחודש
+ואני יודעת שהוא באמת מעוניין בי ולא מדבר כבר עם אחרות גם אבל עכשיו זה חודש של נתק לפנינו אפילו הודעות לא יהיה והייתה לנו שיחה על המצב והוא אמר שלא נעים לו ממני ושאל מה נעשה ואני באמת מבחינתי הבהרתי שאני מוכנה לחכות כי אני חושבת שהוא שווה את זה אבל אני ממש לא יודעת איך לעבור את התקןפה הזאת ואני מפחדת שאחרי חודש הוא פתאום לא ירצה יותר ובכללי שהכל יידפק בגלל זה..</t>
+  </si>
+  <si>
+    <t>https://www.askp.co.il/question/379702</t>
+  </si>
+  <si>
+    <t>אז ככה, כל החיים נחשבתי מחונן, כזה עם קליטה מהירה...
+אני שנה רביעית בראיית חשבון עד עכשיו לא הייתי כמעט בשיעורים ותמיד הייתי מגיע לפני מבחן לומד, ומוציא ציון טוב, אפילו מעולה.
+השנה הזו היא לא ככה, אם לא לומדים ומשקיעים ממש אי אפשר לעבור את בחינות המועצה, נכנסתי למוד של לימודים, עזבתי את העבודה ואני מתרכז רק בזה, הבעיה היא שאני באמת לא מצליח להתרכז, אני יושב ימים שלמים בבית בנסיון לחזור על החומר שהיה בשיעור ופשוט לא הולך לי (חם לי, קר לי, יש טלפון, נזכר במליון דברים שרציתי לעשות ולא עשיתי, אני רעב, אני צמא או בקיצור כל דבר חוץ מללמוד) אני מתוסכל מזה ממש וכל יום עושה לעצמי סדר יום ומבטיח שמחר לא יהיה כמו היום... שוב לא הולך לי... יש מישהו שהיה לו בעיה כזו והצליח להתמודד?
+אציין בנוסף שבשיעורים אני מרוכז ממש, ימים שלמים של 13 שעות אני לא יוצא מריכוז שניה (כך שלא נראה לי שהבעיה היא קשב וריכוז)</t>
+  </si>
+  <si>
+    <t>מיואש </t>
+  </si>
+  <si>
+    <t>https://www.askp.co.il/question/268081</t>
+  </si>
+  <si>
+    <t>טוב אז היי, לפני חודש חגגתי 13 ועוד לא התחלתי להוריד שיער, אני ממש מתביישת לשאול את אמא שלי על זה, אני והיא לא ממש מדברות על דברים כאלה ובכללי לא ממש קרובות, כבר סוף הקיץ ואני ממש מבואסת וכבר לא יודעת מה לעשות, כל הזמן עד עכשיו לבשתי רק מכנסיים ארוכים וסבלתי, חם לי כל כך, וגם לא הלכתי לים ולבריכה אפילו פעם אחת, בנוסף לכל. זה ביום ראשון הזה יש מסיבת בריכה עם כל הכיתה ואני לא יודעת מה לעשות, אין מצב שאני יבוא בלי להוריד שיער, ובנוסף לזה אין לי את הגוף שהכי מתאים, אני די מלאה, 52 קילו, 1.56...
+גם אמא שלי רק מגיעה הביתה מהעבודה והולכת לנוח, אני לא יכולה לדבר איתה בשום הזדמנות....
+בבקשה תעזרו לי ואל תגידו לי להיות עם מכנס קצר בסלון ולהרגיש את השיער ולעשות כאילו זה מפריע, ניסיתי כבר את כל המניפולציות האלו ושום דבר לא עוזר...
+עזרה דחוף.
+בנוסף לזה המשקל שלי בסדר? או שזה חריג?</t>
+  </si>
+  <si>
+    <t>https://www.askp.co.il/question/265618</t>
+  </si>
+  <si>
+    <t>היי, אני בת 16 מהמרכז.
+חום איימים, אני מחום!
+המזגן שלי בחדר 24/7 על 17 מעלות ואני כבר הפסקתי להרגיש אותו, אני מזיעה כל הזמן!!
+התחילה לי הזעת יתר בגיל 14, אני מתקלחת וישר אחרי שאני יוצאת מהמקלחת מתחילה להזיע!
+אני לא מסוגלת יותר!!! גם בחורף אני מזיעה! אני לא יכולה להגיע לבית ספר לא מיוזעת! וזה כולה הליכה של חמש דקות.
+באמת שקשה לי, אני לא יודעת מה לעשות
+מה אפשר לעשות?</t>
+  </si>
+  <si>
+    <t>חם לי! </t>
+  </si>
+  <si>
+    <t>https://www.askp.co.il/question/256109</t>
+  </si>
+  <si>
+    <t>שלום, אני מניחה שלחלק מהקוראים זאת תהיה שאלה מוזרה, אבל יש לי בעיה אמיתית שגורמת לי להרגיש חוסר נוחות ליד הבן זוג שלי.
+אני מזיעה לידו לא מעט, אפילו כשלא חם לי ויוצא ממני ריח לא נעים שאני בטוחה שהוא מריח.
+כמובן שכשזה קורה אני ממהרת לשירותים, שוטפת את בית השחי ושמה דאורדורנט, אבל מרוב שזה קורה הרבה אני כבר די מתייאשת.
+אנחנו ביחד שנה וממש לא נעים לי ממנו ובנוסף זה קורה רק כשאנחנו ביחד.. כשאני לבד או אם אנשים אחרים זה לא קורה בכלל.
+למישהו יש מושג מה אפשר לעשות כדי למנוע ריחות של זיעה?
+קשה לי להאמין שזה בגלל משהו שאני אוכלת כי זה קורה רק כשאני עם החבר..</t>
+  </si>
+  <si>
+    <t>לילי </t>
+  </si>
+  <si>
+    <t>https://www.askp.co.il/question/252322</t>
   </si>
 </sst>
 </file>
@@ -3689,48 +3532,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>648</v>
+        <v>618</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>649</v>
+        <v>619</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -4049,10 +3892,10 @@
         <v>33</v>
       </c>
       <c r="T9">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="U9">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="V9">
         <v>7</v>
@@ -4166,7 +4009,7 @@
         <v>58</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>650</v>
+        <v>620</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>10</v>
@@ -4210,13 +4053,13 @@
         <v>55</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>651</v>
+        <v>621</v>
       </c>
       <c r="P13">
-        <v>73492</v>
+        <v>100114</v>
       </c>
       <c r="Q13">
-        <v>16196</v>
+        <v>21916</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.2">
@@ -4257,13 +4100,13 @@
         <v>20</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>652</v>
+        <v>622</v>
       </c>
       <c r="P14">
-        <v>293.96800000000002</v>
+        <v>400.45600000000002</v>
       </c>
       <c r="Q14">
-        <v>65.044176706827301</v>
+        <v>87.664000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.2">
@@ -4304,13 +4147,13 @@
         <v>66</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>653</v>
+        <v>623</v>
       </c>
       <c r="P15">
-        <v>194</v>
+        <v>236.5</v>
       </c>
       <c r="Q15">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.2">
@@ -4351,13 +4194,13 @@
         <v>26</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>654</v>
+        <v>624</v>
       </c>
       <c r="P16">
-        <v>85340.047164658594</v>
+        <v>155827.87155020001</v>
       </c>
       <c r="Q16">
-        <v>4152.81658893639</v>
+        <v>7354.3123534136503</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.2">
@@ -4398,13 +4241,13 @@
         <v>32</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>655</v>
+        <v>625</v>
       </c>
       <c r="P17">
-        <v>292.13018872526402</v>
+        <v>394.75039145034498</v>
       </c>
       <c r="Q17">
-        <v>64.442350895481695</v>
+        <v>85.757287465344007</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.2">
@@ -4445,13 +4288,13 @@
         <v>35</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>656</v>
+        <v>626</v>
       </c>
       <c r="P18">
-        <v>1742</v>
+        <v>1797</v>
       </c>
       <c r="Q18">
-        <v>378</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.2">
@@ -4492,10 +4335,10 @@
         <v>14</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>657</v>
+        <v>627</v>
       </c>
       <c r="P19">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -5260,7 +5103,7 @@
         <v>12</v>
       </c>
       <c r="D40">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E40" t="s">
         <v>125</v>
@@ -5281,10 +5124,10 @@
         <v>18</v>
       </c>
       <c r="L40">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="M40">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -5295,10 +5138,10 @@
         <v>127</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D41">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E41" t="s">
         <v>128</v>
@@ -5319,10 +5162,10 @@
         <v>18</v>
       </c>
       <c r="L41">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="M41">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
@@ -5357,10 +5200,10 @@
         <v>18</v>
       </c>
       <c r="L42">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="M42">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -5374,7 +5217,7 @@
         <v>41</v>
       </c>
       <c r="D43">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E43" t="s">
         <v>134</v>
@@ -5395,10 +5238,10 @@
         <v>18</v>
       </c>
       <c r="L43">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="M43">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -5412,7 +5255,7 @@
         <v>41</v>
       </c>
       <c r="D44">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E44" t="s">
         <v>137</v>
@@ -5433,10 +5276,10 @@
         <v>18</v>
       </c>
       <c r="L44">
-        <v>64</v>
+        <v>345</v>
       </c>
       <c r="M44">
-        <v>15</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
@@ -5450,7 +5293,7 @@
         <v>41</v>
       </c>
       <c r="D45">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E45" t="s">
         <v>140</v>
@@ -5471,10 +5314,10 @@
         <v>18</v>
       </c>
       <c r="L45">
-        <v>345</v>
+        <v>253</v>
       </c>
       <c r="M45">
-        <v>94</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -5485,10 +5328,10 @@
         <v>142</v>
       </c>
       <c r="C46" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D46">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E46" t="s">
         <v>143</v>
@@ -5509,10 +5352,10 @@
         <v>18</v>
       </c>
       <c r="L46">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="M46">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -5526,7 +5369,7 @@
         <v>12</v>
       </c>
       <c r="D47">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E47" t="s">
         <v>146</v>
@@ -5547,10 +5390,10 @@
         <v>18</v>
       </c>
       <c r="L47">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="M47">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -5564,7 +5407,7 @@
         <v>12</v>
       </c>
       <c r="D48">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E48" t="s">
         <v>149</v>
@@ -5585,10 +5428,10 @@
         <v>18</v>
       </c>
       <c r="L48">
-        <v>108</v>
+        <v>237</v>
       </c>
       <c r="M48">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -5599,13 +5442,13 @@
         <v>151</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D49">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E49" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="F49" t="s">
         <v>47</v>
@@ -5614,7 +5457,7 @@
         <v>15</v>
       </c>
       <c r="H49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I49" t="s">
         <v>17</v>
@@ -5623,10 +5466,10 @@
         <v>18</v>
       </c>
       <c r="L49">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="M49">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -5634,16 +5477,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" t="s">
         <v>154</v>
-      </c>
-      <c r="C50" t="s">
-        <v>41</v>
-      </c>
-      <c r="D50">
-        <v>31</v>
-      </c>
-      <c r="E50" t="s">
-        <v>73</v>
       </c>
       <c r="F50" t="s">
         <v>47</v>
@@ -5661,10 +5501,10 @@
         <v>18</v>
       </c>
       <c r="L50">
-        <v>214</v>
+        <v>97</v>
       </c>
       <c r="M50">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -5677,6 +5517,9 @@
       <c r="C51" t="s">
         <v>41</v>
       </c>
+      <c r="D51">
+        <v>27</v>
+      </c>
       <c r="E51" t="s">
         <v>157</v>
       </c>
@@ -5696,10 +5539,10 @@
         <v>18</v>
       </c>
       <c r="L51">
-        <v>97</v>
+        <v>195</v>
       </c>
       <c r="M51">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
@@ -5713,7 +5556,7 @@
         <v>41</v>
       </c>
       <c r="D52">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E52" t="s">
         <v>160</v>
@@ -5734,10 +5577,10 @@
         <v>18</v>
       </c>
       <c r="L52">
-        <v>195</v>
+        <v>56</v>
       </c>
       <c r="M52">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
@@ -5751,7 +5594,7 @@
         <v>41</v>
       </c>
       <c r="D53">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E53" t="s">
         <v>163</v>
@@ -5772,10 +5615,10 @@
         <v>18</v>
       </c>
       <c r="L53">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="M53">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
@@ -5789,7 +5632,7 @@
         <v>41</v>
       </c>
       <c r="D54">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E54" t="s">
         <v>166</v>
@@ -5810,7 +5653,7 @@
         <v>18</v>
       </c>
       <c r="L54">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="M54">
         <v>22</v>
@@ -5824,10 +5667,10 @@
         <v>168</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D55">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E55" t="s">
         <v>169</v>
@@ -5848,10 +5691,10 @@
         <v>18</v>
       </c>
       <c r="L55">
-        <v>100</v>
+        <v>407</v>
       </c>
       <c r="M55">
-        <v>22</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
@@ -5862,10 +5705,10 @@
         <v>171</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D56">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E56" t="s">
         <v>172</v>
@@ -5886,10 +5729,10 @@
         <v>18</v>
       </c>
       <c r="L56">
-        <v>407</v>
+        <v>271</v>
       </c>
       <c r="M56">
-        <v>90</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
@@ -5900,10 +5743,10 @@
         <v>174</v>
       </c>
       <c r="C57" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D57">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E57" t="s">
         <v>175</v>
@@ -5924,10 +5767,10 @@
         <v>18</v>
       </c>
       <c r="L57">
-        <v>271</v>
+        <v>101</v>
       </c>
       <c r="M57">
-        <v>64</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
@@ -5938,13 +5781,13 @@
         <v>177</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D58">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E58" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="F58" t="s">
         <v>47</v>
@@ -5953,7 +5796,7 @@
         <v>15</v>
       </c>
       <c r="H58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I58" t="s">
         <v>17</v>
@@ -5962,10 +5805,10 @@
         <v>18</v>
       </c>
       <c r="L58">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M58">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
@@ -5973,16 +5816,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59">
+        <v>27</v>
+      </c>
+      <c r="E59" t="s">
         <v>180</v>
-      </c>
-      <c r="C59" t="s">
-        <v>41</v>
-      </c>
-      <c r="D59">
-        <v>31</v>
-      </c>
-      <c r="E59" t="s">
-        <v>73</v>
       </c>
       <c r="F59" t="s">
         <v>47</v>
@@ -6000,10 +5843,10 @@
         <v>18</v>
       </c>
       <c r="L59">
-        <v>98</v>
+        <v>235</v>
       </c>
       <c r="M59">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
@@ -6014,22 +5857,19 @@
         <v>182</v>
       </c>
       <c r="C60" t="s">
-        <v>41</v>
-      </c>
-      <c r="D60">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E60" t="s">
         <v>183</v>
       </c>
       <c r="F60" t="s">
-        <v>47</v>
+        <v>184</v>
       </c>
       <c r="G60" t="s">
         <v>15</v>
       </c>
       <c r="H60" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I60" t="s">
         <v>17</v>
@@ -6038,10 +5878,10 @@
         <v>18</v>
       </c>
       <c r="L60">
-        <v>235</v>
+        <v>131</v>
       </c>
       <c r="M60">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
@@ -6049,22 +5889,25 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C61" t="s">
         <v>12</v>
       </c>
+      <c r="D61">
+        <v>36</v>
+      </c>
       <c r="E61" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F61" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G61" t="s">
         <v>15</v>
       </c>
       <c r="H61" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I61" t="s">
         <v>17</v>
@@ -6073,10 +5916,10 @@
         <v>18</v>
       </c>
       <c r="L61">
-        <v>131</v>
+        <v>360</v>
       </c>
       <c r="M61">
-        <v>22</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
@@ -6084,25 +5927,22 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C62" t="s">
         <v>12</v>
       </c>
-      <c r="D62">
-        <v>36</v>
-      </c>
       <c r="E62" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F62" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G62" t="s">
         <v>15</v>
       </c>
       <c r="H62" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I62" t="s">
         <v>17</v>
@@ -6111,10 +5951,10 @@
         <v>18</v>
       </c>
       <c r="L62">
-        <v>360</v>
+        <v>63</v>
       </c>
       <c r="M62">
-        <v>92</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
@@ -6122,22 +5962,22 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>190</v>
+      </c>
+      <c r="C63" t="s">
+        <v>41</v>
+      </c>
+      <c r="E63" t="s">
         <v>191</v>
       </c>
-      <c r="C63" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" t="s">
-        <v>192</v>
-      </c>
       <c r="F63" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G63" t="s">
         <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I63" t="s">
         <v>17</v>
@@ -6146,10 +5986,10 @@
         <v>18</v>
       </c>
       <c r="L63">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="M63">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
@@ -6157,22 +5997,22 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C64" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E64" t="s">
-        <v>194</v>
+        <v>62</v>
       </c>
       <c r="F64" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G64" t="s">
         <v>15</v>
       </c>
       <c r="H64" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I64" t="s">
         <v>17</v>
@@ -6181,10 +6021,10 @@
         <v>18</v>
       </c>
       <c r="L64">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="M64">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
@@ -6192,22 +6032,22 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C65" t="s">
         <v>12</v>
       </c>
       <c r="E65" t="s">
-        <v>62</v>
+        <v>194</v>
       </c>
       <c r="F65" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G65" t="s">
         <v>15</v>
       </c>
       <c r="H65" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I65" t="s">
         <v>17</v>
@@ -6216,10 +6056,10 @@
         <v>18</v>
       </c>
       <c r="L65">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="M65">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
@@ -6227,22 +6067,22 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C66" t="s">
         <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F66" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G66" t="s">
         <v>15</v>
       </c>
       <c r="H66" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I66" t="s">
         <v>17</v>
@@ -6251,10 +6091,10 @@
         <v>18</v>
       </c>
       <c r="L66">
-        <v>218</v>
+        <v>394</v>
       </c>
       <c r="M66">
-        <v>51</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
@@ -6262,22 +6102,22 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
       </c>
       <c r="E67" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F67" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G67" t="s">
         <v>15</v>
       </c>
       <c r="H67" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I67" t="s">
         <v>17</v>
@@ -6286,10 +6126,10 @@
         <v>18</v>
       </c>
       <c r="L67">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="M67">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
@@ -6297,22 +6137,22 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
       </c>
       <c r="E68" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F68" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G68" t="s">
         <v>15</v>
       </c>
       <c r="H68" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I68" t="s">
         <v>17</v>
@@ -6321,10 +6161,10 @@
         <v>18</v>
       </c>
       <c r="L68">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="M68">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
@@ -6332,22 +6172,22 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>203</v>
+        <v>62</v>
       </c>
       <c r="F69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G69" t="s">
         <v>15</v>
       </c>
       <c r="H69" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I69" t="s">
         <v>17</v>
@@ -6356,10 +6196,10 @@
         <v>18</v>
       </c>
       <c r="L69">
-        <v>411</v>
+        <v>244</v>
       </c>
       <c r="M69">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
@@ -6367,22 +6207,22 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E70" t="s">
-        <v>62</v>
+        <v>203</v>
       </c>
       <c r="F70" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G70" t="s">
         <v>15</v>
       </c>
       <c r="H70" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I70" t="s">
         <v>17</v>
@@ -6391,10 +6231,10 @@
         <v>18</v>
       </c>
       <c r="L70">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="M70">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
@@ -6402,22 +6242,22 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C71" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="F71" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G71" t="s">
         <v>15</v>
       </c>
       <c r="H71" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I71" t="s">
         <v>17</v>
@@ -6426,10 +6266,10 @@
         <v>18</v>
       </c>
       <c r="L71">
-        <v>226</v>
+        <v>928</v>
       </c>
       <c r="M71">
-        <v>54</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
@@ -6437,22 +6277,22 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
       </c>
       <c r="E72" t="s">
-        <v>190</v>
+        <v>13</v>
       </c>
       <c r="F72" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="G72" t="s">
         <v>15</v>
       </c>
       <c r="H72" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="I72" t="s">
         <v>17</v>
@@ -6461,10 +6301,10 @@
         <v>18</v>
       </c>
       <c r="L72">
-        <v>928</v>
+        <v>76</v>
       </c>
       <c r="M72">
-        <v>212</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
@@ -6475,19 +6315,19 @@
         <v>208</v>
       </c>
       <c r="C73" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E73" t="s">
-        <v>13</v>
+        <v>209</v>
       </c>
       <c r="F73" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G73" t="s">
         <v>15</v>
       </c>
       <c r="H73" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I73" t="s">
         <v>17</v>
@@ -6496,10 +6336,10 @@
         <v>18</v>
       </c>
       <c r="L73">
-        <v>76</v>
+        <v>922</v>
       </c>
       <c r="M73">
-        <v>18</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
@@ -6507,22 +6347,22 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>210</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" t="s">
         <v>211</v>
       </c>
-      <c r="C74" t="s">
-        <v>41</v>
-      </c>
-      <c r="E74" t="s">
-        <v>212</v>
-      </c>
       <c r="F74" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G74" t="s">
         <v>15</v>
       </c>
       <c r="H74" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I74" t="s">
         <v>17</v>
@@ -6531,10 +6371,10 @@
         <v>18</v>
       </c>
       <c r="L74">
-        <v>922</v>
+        <v>664</v>
       </c>
       <c r="M74">
-        <v>184</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
@@ -6542,22 +6382,22 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>212</v>
+      </c>
+      <c r="C75" t="s">
+        <v>41</v>
+      </c>
+      <c r="E75" t="s">
         <v>213</v>
       </c>
-      <c r="C75" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" t="s">
-        <v>214</v>
-      </c>
       <c r="F75" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G75" t="s">
         <v>15</v>
       </c>
       <c r="H75" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I75" t="s">
         <v>17</v>
@@ -6566,10 +6406,10 @@
         <v>18</v>
       </c>
       <c r="L75">
-        <v>664</v>
+        <v>397</v>
       </c>
       <c r="M75">
-        <v>138</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
@@ -6577,22 +6417,22 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>214</v>
+      </c>
+      <c r="C76" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" t="s">
         <v>215</v>
       </c>
-      <c r="C76" t="s">
-        <v>41</v>
-      </c>
-      <c r="E76" t="s">
-        <v>216</v>
-      </c>
       <c r="F76" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G76" t="s">
         <v>15</v>
       </c>
       <c r="H76" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I76" t="s">
         <v>17</v>
@@ -6601,10 +6441,10 @@
         <v>18</v>
       </c>
       <c r="L76">
-        <v>397</v>
+        <v>216</v>
       </c>
       <c r="M76">
-        <v>90</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
@@ -6612,22 +6452,22 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>216</v>
+      </c>
+      <c r="C77" t="s">
+        <v>41</v>
+      </c>
+      <c r="E77" t="s">
         <v>217</v>
       </c>
-      <c r="C77" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" t="s">
-        <v>218</v>
-      </c>
       <c r="F77" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G77" t="s">
         <v>15</v>
       </c>
       <c r="H77" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I77" t="s">
         <v>17</v>
@@ -6636,10 +6476,10 @@
         <v>18</v>
       </c>
       <c r="L77">
-        <v>1781</v>
+        <v>144</v>
       </c>
       <c r="M77">
-        <v>439</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
@@ -6647,22 +6487,22 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F78" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G78" t="s">
         <v>15</v>
       </c>
       <c r="H78" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I78" t="s">
         <v>17</v>
@@ -6671,10 +6511,10 @@
         <v>18</v>
       </c>
       <c r="L78">
-        <v>216</v>
+        <v>421</v>
       </c>
       <c r="M78">
-        <v>44</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
@@ -6682,22 +6522,22 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>220</v>
+      </c>
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" t="s">
         <v>221</v>
       </c>
-      <c r="C79" t="s">
-        <v>41</v>
-      </c>
-      <c r="E79" t="s">
-        <v>222</v>
-      </c>
       <c r="F79" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G79" t="s">
         <v>15</v>
       </c>
       <c r="H79" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I79" t="s">
         <v>17</v>
@@ -6706,10 +6546,10 @@
         <v>18</v>
       </c>
       <c r="L79">
-        <v>144</v>
+        <v>1690</v>
       </c>
       <c r="M79">
-        <v>31</v>
+        <v>292</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
@@ -6717,22 +6557,22 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F80" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G80" t="s">
         <v>15</v>
       </c>
       <c r="H80" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I80" t="s">
         <v>17</v>
@@ -6741,10 +6581,10 @@
         <v>18</v>
       </c>
       <c r="L80">
-        <v>421</v>
+        <v>153</v>
       </c>
       <c r="M80">
-        <v>87</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
@@ -6752,22 +6592,22 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>226</v>
+        <v>62</v>
       </c>
       <c r="F81" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G81" t="s">
         <v>15</v>
       </c>
       <c r="H81" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I81" t="s">
         <v>17</v>
@@ -6776,10 +6616,10 @@
         <v>18</v>
       </c>
       <c r="L81">
-        <v>1690</v>
+        <v>70</v>
       </c>
       <c r="M81">
-        <v>292</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
@@ -6787,22 +6627,22 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C82" t="s">
         <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>228</v>
+        <v>62</v>
       </c>
       <c r="F82" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G82" t="s">
         <v>15</v>
       </c>
       <c r="H82" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I82" t="s">
         <v>17</v>
@@ -6811,10 +6651,10 @@
         <v>18</v>
       </c>
       <c r="L82">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="M82">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
@@ -6822,22 +6662,22 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C83" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E83" t="s">
-        <v>62</v>
+        <v>227</v>
       </c>
       <c r="F83" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G83" t="s">
         <v>15</v>
       </c>
       <c r="H83" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I83" t="s">
         <v>17</v>
@@ -6846,10 +6686,10 @@
         <v>18</v>
       </c>
       <c r="L83">
-        <v>70</v>
+        <v>305</v>
       </c>
       <c r="M83">
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
@@ -6857,22 +6697,22 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C84" t="s">
         <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="F84" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G84" t="s">
         <v>15</v>
       </c>
       <c r="H84" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I84" t="s">
         <v>17</v>
@@ -6881,10 +6721,10 @@
         <v>18</v>
       </c>
       <c r="L84">
-        <v>215</v>
+        <v>433</v>
       </c>
       <c r="M84">
-        <v>51</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
@@ -6892,22 +6732,22 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>230</v>
+      </c>
+      <c r="C85" t="s">
+        <v>41</v>
+      </c>
+      <c r="E85" t="s">
         <v>231</v>
       </c>
-      <c r="C85" t="s">
-        <v>41</v>
-      </c>
-      <c r="E85" t="s">
-        <v>232</v>
-      </c>
       <c r="F85" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G85" t="s">
         <v>15</v>
       </c>
       <c r="H85" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I85" t="s">
         <v>17</v>
@@ -6916,10 +6756,10 @@
         <v>18</v>
       </c>
       <c r="L85">
-        <v>305</v>
+        <v>1163</v>
       </c>
       <c r="M85">
-        <v>61</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
@@ -6927,22 +6767,22 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C86" t="s">
         <v>12</v>
       </c>
       <c r="E86" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F86" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G86" t="s">
         <v>15</v>
       </c>
       <c r="H86" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I86" t="s">
         <v>17</v>
@@ -6951,10 +6791,10 @@
         <v>18</v>
       </c>
       <c r="L86">
-        <v>433</v>
+        <v>274</v>
       </c>
       <c r="M86">
-        <v>101</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
@@ -6962,22 +6802,22 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>234</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" t="s">
         <v>235</v>
       </c>
-      <c r="C87" t="s">
-        <v>41</v>
-      </c>
-      <c r="E87" t="s">
-        <v>236</v>
-      </c>
       <c r="F87" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G87" t="s">
         <v>15</v>
       </c>
       <c r="H87" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I87" t="s">
         <v>17</v>
@@ -6986,10 +6826,10 @@
         <v>18</v>
       </c>
       <c r="L87">
-        <v>1163</v>
+        <v>665</v>
       </c>
       <c r="M87">
-        <v>236</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
@@ -6997,22 +6837,22 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C88" t="s">
         <v>12</v>
       </c>
       <c r="E88" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F88" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G88" t="s">
         <v>15</v>
       </c>
       <c r="H88" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I88" t="s">
         <v>17</v>
@@ -7021,10 +6861,10 @@
         <v>18</v>
       </c>
       <c r="L88">
-        <v>274</v>
+        <v>229</v>
       </c>
       <c r="M88">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
@@ -7032,22 +6872,22 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C89" t="s">
         <v>12</v>
       </c>
       <c r="E89" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F89" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G89" t="s">
         <v>15</v>
       </c>
       <c r="H89" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I89" t="s">
         <v>17</v>
@@ -7056,10 +6896,10 @@
         <v>18</v>
       </c>
       <c r="L89">
-        <v>665</v>
+        <v>84</v>
       </c>
       <c r="M89">
-        <v>134</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
@@ -7067,22 +6907,22 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C90" t="s">
         <v>12</v>
       </c>
       <c r="E90" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F90" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G90" t="s">
         <v>15</v>
       </c>
       <c r="H90" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I90" t="s">
         <v>17</v>
@@ -7091,10 +6931,10 @@
         <v>18</v>
       </c>
       <c r="L90">
-        <v>229</v>
+        <v>1177</v>
       </c>
       <c r="M90">
-        <v>47</v>
+        <v>226</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
@@ -7102,22 +6942,22 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C91" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E91" t="s">
-        <v>13</v>
+        <v>242</v>
       </c>
       <c r="F91" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G91" t="s">
         <v>15</v>
       </c>
       <c r="H91" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I91" t="s">
         <v>17</v>
@@ -7126,10 +6966,10 @@
         <v>18</v>
       </c>
       <c r="L91">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="M91">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
@@ -7137,22 +6977,22 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>243</v>
+      </c>
+      <c r="C92" t="s">
+        <v>41</v>
+      </c>
+      <c r="E92" t="s">
         <v>244</v>
       </c>
-      <c r="C92" t="s">
-        <v>12</v>
-      </c>
-      <c r="E92" t="s">
-        <v>245</v>
-      </c>
       <c r="F92" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G92" t="s">
         <v>15</v>
       </c>
       <c r="H92" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I92" t="s">
         <v>17</v>
@@ -7161,10 +7001,10 @@
         <v>18</v>
       </c>
       <c r="L92">
-        <v>1177</v>
+        <v>356</v>
       </c>
       <c r="M92">
-        <v>226</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
@@ -7172,22 +7012,22 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>245</v>
+      </c>
+      <c r="C93" t="s">
+        <v>41</v>
+      </c>
+      <c r="E93" t="s">
         <v>246</v>
       </c>
-      <c r="C93" t="s">
-        <v>41</v>
-      </c>
-      <c r="E93" t="s">
-        <v>247</v>
-      </c>
       <c r="F93" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G93" t="s">
         <v>15</v>
       </c>
       <c r="H93" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I93" t="s">
         <v>17</v>
@@ -7196,10 +7036,10 @@
         <v>18</v>
       </c>
       <c r="L93">
-        <v>155</v>
+        <v>820</v>
       </c>
       <c r="M93">
-        <v>34</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
@@ -7207,22 +7047,22 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>247</v>
+      </c>
+      <c r="C94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" t="s">
         <v>248</v>
       </c>
-      <c r="C94" t="s">
-        <v>41</v>
-      </c>
-      <c r="E94" t="s">
-        <v>249</v>
-      </c>
       <c r="F94" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G94" t="s">
         <v>15</v>
       </c>
       <c r="H94" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I94" t="s">
         <v>17</v>
@@ -7231,10 +7071,10 @@
         <v>18</v>
       </c>
       <c r="L94">
-        <v>356</v>
+        <v>189</v>
       </c>
       <c r="M94">
-        <v>78</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
@@ -7242,22 +7082,22 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>249</v>
+      </c>
+      <c r="C95" t="s">
+        <v>41</v>
+      </c>
+      <c r="E95" t="s">
         <v>250</v>
       </c>
-      <c r="C95" t="s">
-        <v>41</v>
-      </c>
-      <c r="E95" t="s">
-        <v>251</v>
-      </c>
       <c r="F95" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G95" t="s">
         <v>15</v>
       </c>
       <c r="H95" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I95" t="s">
         <v>17</v>
@@ -7266,10 +7106,10 @@
         <v>18</v>
       </c>
       <c r="L95">
-        <v>820</v>
+        <v>148</v>
       </c>
       <c r="M95">
-        <v>183</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
@@ -7277,22 +7117,22 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C96" t="s">
         <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F96" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G96" t="s">
         <v>15</v>
       </c>
       <c r="H96" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I96" t="s">
         <v>17</v>
@@ -7301,10 +7141,10 @@
         <v>18</v>
       </c>
       <c r="L96">
-        <v>189</v>
+        <v>615</v>
       </c>
       <c r="M96">
-        <v>40</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
@@ -7312,22 +7152,22 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>253</v>
+      </c>
+      <c r="C97" t="s">
+        <v>41</v>
+      </c>
+      <c r="E97" t="s">
         <v>254</v>
       </c>
-      <c r="C97" t="s">
-        <v>41</v>
-      </c>
-      <c r="E97" t="s">
-        <v>255</v>
-      </c>
       <c r="F97" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G97" t="s">
         <v>15</v>
       </c>
       <c r="H97" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I97" t="s">
         <v>17</v>
@@ -7336,10 +7176,10 @@
         <v>18</v>
       </c>
       <c r="L97">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="M97">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
@@ -7347,22 +7187,22 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F98" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G98" t="s">
         <v>15</v>
       </c>
       <c r="H98" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I98" t="s">
         <v>17</v>
@@ -7371,10 +7211,10 @@
         <v>18</v>
       </c>
       <c r="L98">
-        <v>3324</v>
+        <v>71</v>
       </c>
       <c r="M98">
-        <v>701</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
@@ -7382,22 +7222,22 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C99" t="s">
         <v>12</v>
       </c>
       <c r="E99" t="s">
+        <v>258</v>
+      </c>
+      <c r="F99" t="s">
         <v>259</v>
       </c>
-      <c r="F99" t="s">
-        <v>209</v>
-      </c>
       <c r="G99" t="s">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="H99" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="I99" t="s">
         <v>17</v>
@@ -7406,10 +7246,10 @@
         <v>18</v>
       </c>
       <c r="L99">
-        <v>615</v>
+        <v>248</v>
       </c>
       <c r="M99">
-        <v>107</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
@@ -7417,22 +7257,22 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C100" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E100" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F100" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="G100" t="s">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="H100" t="s">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="I100" t="s">
         <v>17</v>
@@ -7441,10 +7281,10 @@
         <v>18</v>
       </c>
       <c r="L100">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="M100">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
@@ -7452,22 +7292,22 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C101" t="s">
         <v>12</v>
       </c>
       <c r="E101" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F101" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="G101" t="s">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="H101" t="s">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="I101" t="s">
         <v>17</v>
@@ -7476,10 +7316,10 @@
         <v>18</v>
       </c>
       <c r="L101">
-        <v>71</v>
+        <v>334</v>
       </c>
       <c r="M101">
-        <v>18</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
@@ -7487,22 +7327,22 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C102" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E102" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F102" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G102" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H102" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I102" t="s">
         <v>17</v>
@@ -7511,10 +7351,10 @@
         <v>18</v>
       </c>
       <c r="L102">
-        <v>248</v>
+        <v>297</v>
       </c>
       <c r="M102">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
@@ -7522,22 +7362,22 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C103" t="s">
         <v>12</v>
       </c>
       <c r="E103" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F103" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G103" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H103" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="I103" t="s">
         <v>17</v>
@@ -7546,10 +7386,10 @@
         <v>18</v>
       </c>
       <c r="L103">
-        <v>165</v>
+        <v>1383</v>
       </c>
       <c r="M103">
-        <v>34</v>
+        <v>274</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
@@ -7560,16 +7400,16 @@
         <v>272</v>
       </c>
       <c r="C104" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E104" t="s">
+        <v>258</v>
+      </c>
+      <c r="F104" t="s">
         <v>273</v>
       </c>
-      <c r="F104" t="s">
-        <v>266</v>
-      </c>
       <c r="G104" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H104" t="s">
         <v>274</v>
@@ -7581,10 +7421,10 @@
         <v>18</v>
       </c>
       <c r="L104">
-        <v>334</v>
+        <v>93</v>
       </c>
       <c r="M104">
-        <v>78</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
@@ -7595,16 +7435,16 @@
         <v>275</v>
       </c>
       <c r="C105" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E105" t="s">
         <v>276</v>
       </c>
       <c r="F105" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="G105" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H105" t="s">
         <v>277</v>
@@ -7616,10 +7456,10 @@
         <v>18</v>
       </c>
       <c r="L105">
-        <v>297</v>
+        <v>210</v>
       </c>
       <c r="M105">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
@@ -7633,16 +7473,16 @@
         <v>12</v>
       </c>
       <c r="E106" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="F106" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="G106" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H106" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="I106" t="s">
         <v>17</v>
@@ -7651,10 +7491,10 @@
         <v>18</v>
       </c>
       <c r="L106">
-        <v>1383</v>
+        <v>819</v>
       </c>
       <c r="M106">
-        <v>274</v>
+        <v>187</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
@@ -7662,22 +7502,22 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C107" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E107" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="F107" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G107" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H107" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I107" t="s">
         <v>17</v>
@@ -7686,10 +7526,10 @@
         <v>18</v>
       </c>
       <c r="L107">
-        <v>93</v>
+        <v>406</v>
       </c>
       <c r="M107">
-        <v>27</v>
+        <v>83</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
@@ -7697,22 +7537,22 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C108" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E108" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F108" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G108" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H108" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I108" t="s">
         <v>17</v>
@@ -7721,10 +7561,10 @@
         <v>18</v>
       </c>
       <c r="L108">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="M108">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
@@ -7732,22 +7572,22 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C109" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E109" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F109" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G109" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H109" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I109" t="s">
         <v>17</v>
@@ -7756,10 +7596,10 @@
         <v>18</v>
       </c>
       <c r="L109">
-        <v>819</v>
+        <v>236</v>
       </c>
       <c r="M109">
-        <v>187</v>
+        <v>48</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
@@ -7767,22 +7607,22 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C110" t="s">
         <v>12</v>
       </c>
       <c r="E110" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F110" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G110" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H110" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I110" t="s">
         <v>17</v>
@@ -7791,10 +7631,10 @@
         <v>18</v>
       </c>
       <c r="L110">
-        <v>406</v>
+        <v>68</v>
       </c>
       <c r="M110">
-        <v>83</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
@@ -7802,22 +7642,22 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C111" t="s">
         <v>41</v>
       </c>
       <c r="E111" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F111" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G111" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H111" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I111" t="s">
         <v>17</v>
@@ -7826,10 +7666,10 @@
         <v>18</v>
       </c>
       <c r="L111">
-        <v>196</v>
+        <v>832</v>
       </c>
       <c r="M111">
-        <v>38</v>
+        <v>186</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
@@ -7837,22 +7677,22 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C112" t="s">
         <v>41</v>
       </c>
       <c r="E112" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F112" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G112" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H112" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I112" t="s">
         <v>17</v>
@@ -7861,10 +7701,10 @@
         <v>18</v>
       </c>
       <c r="L112">
-        <v>236</v>
+        <v>414</v>
       </c>
       <c r="M112">
-        <v>48</v>
+        <v>83</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
@@ -7872,22 +7712,22 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C113" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E113" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F113" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G113" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H113" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="I113" t="s">
         <v>17</v>
@@ -7896,10 +7736,10 @@
         <v>18</v>
       </c>
       <c r="L113">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c r="M113">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
@@ -7916,10 +7756,10 @@
         <v>301</v>
       </c>
       <c r="F114" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G114" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H114" t="s">
         <v>302</v>
@@ -7931,10 +7771,10 @@
         <v>18</v>
       </c>
       <c r="L114">
-        <v>2760</v>
+        <v>53</v>
       </c>
       <c r="M114">
-        <v>638</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
@@ -7951,10 +7791,10 @@
         <v>304</v>
       </c>
       <c r="F115" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G115" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H115" t="s">
         <v>305</v>
@@ -7966,10 +7806,10 @@
         <v>18</v>
       </c>
       <c r="L115">
-        <v>832</v>
+        <v>507</v>
       </c>
       <c r="M115">
-        <v>186</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
@@ -7986,10 +7826,10 @@
         <v>307</v>
       </c>
       <c r="F116" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G116" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H116" t="s">
         <v>308</v>
@@ -8001,10 +7841,10 @@
         <v>18</v>
       </c>
       <c r="L116">
-        <v>414</v>
+        <v>197</v>
       </c>
       <c r="M116">
-        <v>83</v>
+        <v>43</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
@@ -8015,19 +7855,19 @@
         <v>309</v>
       </c>
       <c r="C117" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E117" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="F117" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G117" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H117" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="I117" t="s">
         <v>17</v>
@@ -8036,10 +7876,10 @@
         <v>18</v>
       </c>
       <c r="L117">
-        <v>239</v>
+        <v>101</v>
       </c>
       <c r="M117">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
@@ -8047,22 +7887,22 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C118" t="s">
         <v>12</v>
       </c>
       <c r="E118" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="F118" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="G118" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H118" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I118" t="s">
         <v>17</v>
@@ -8071,10 +7911,10 @@
         <v>18</v>
       </c>
       <c r="L118">
-        <v>53</v>
+        <v>424</v>
       </c>
       <c r="M118">
-        <v>11</v>
+        <v>96</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
@@ -8082,22 +7922,22 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
+        <v>315</v>
+      </c>
+      <c r="C119" t="s">
+        <v>41</v>
+      </c>
+      <c r="E119" t="s">
+        <v>316</v>
+      </c>
+      <c r="F119" t="s">
         <v>313</v>
       </c>
-      <c r="C119" t="s">
-        <v>41</v>
-      </c>
-      <c r="E119" t="s">
-        <v>314</v>
-      </c>
-      <c r="F119" t="s">
-        <v>280</v>
-      </c>
       <c r="G119" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H119" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I119" t="s">
         <v>17</v>
@@ -8106,10 +7946,10 @@
         <v>18</v>
       </c>
       <c r="L119">
-        <v>507</v>
+        <v>682</v>
       </c>
       <c r="M119">
-        <v>116</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
@@ -8117,22 +7957,22 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C120" t="s">
         <v>41</v>
       </c>
       <c r="E120" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F120" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="G120" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H120" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I120" t="s">
         <v>17</v>
@@ -8141,10 +7981,10 @@
         <v>18</v>
       </c>
       <c r="L120">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="M120">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
@@ -8152,22 +7992,22 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C121" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E121" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F121" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="G121" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H121" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I121" t="s">
         <v>17</v>
@@ -8176,10 +8016,10 @@
         <v>18</v>
       </c>
       <c r="L121">
-        <v>101</v>
+        <v>1111</v>
       </c>
       <c r="M121">
-        <v>19</v>
+        <v>258</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
@@ -8187,22 +8027,22 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C122" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E122" t="s">
-        <v>265</v>
+        <v>325</v>
       </c>
       <c r="F122" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G122" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H122" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="I122" t="s">
         <v>17</v>
@@ -8211,10 +8051,10 @@
         <v>18</v>
       </c>
       <c r="L122">
-        <v>424</v>
+        <v>178</v>
       </c>
       <c r="M122">
-        <v>96</v>
+        <v>42</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
@@ -8222,22 +8062,22 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C123" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F123" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G123" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H123" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I123" t="s">
         <v>17</v>
@@ -8246,10 +8086,10 @@
         <v>18</v>
       </c>
       <c r="L123">
-        <v>682</v>
+        <v>355</v>
       </c>
       <c r="M123">
-        <v>166</v>
+        <v>82</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
@@ -8257,22 +8097,22 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C124" t="s">
         <v>41</v>
       </c>
       <c r="E124" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F124" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G124" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H124" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="I124" t="s">
         <v>17</v>
@@ -8281,10 +8121,10 @@
         <v>18</v>
       </c>
       <c r="L124">
-        <v>218</v>
+        <v>651</v>
       </c>
       <c r="M124">
-        <v>49</v>
+        <v>149</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
@@ -8292,22 +8132,22 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C125" t="s">
         <v>41</v>
       </c>
       <c r="E125" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F125" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G125" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H125" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="I125" t="s">
         <v>17</v>
@@ -8316,10 +8156,10 @@
         <v>18</v>
       </c>
       <c r="L125">
-        <v>1111</v>
+        <v>115</v>
       </c>
       <c r="M125">
-        <v>258</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
@@ -8327,22 +8167,22 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C126" t="s">
         <v>41</v>
       </c>
       <c r="E126" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F126" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G126" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H126" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="I126" t="s">
         <v>17</v>
@@ -8351,10 +8191,10 @@
         <v>18</v>
       </c>
       <c r="L126">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="M126">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
@@ -8362,22 +8202,22 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C127" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E127" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F127" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G127" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H127" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="I127" t="s">
         <v>17</v>
@@ -8386,10 +8226,10 @@
         <v>18</v>
       </c>
       <c r="L127">
-        <v>355</v>
+        <v>113</v>
       </c>
       <c r="M127">
-        <v>82</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
@@ -8397,22 +8237,22 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C128" t="s">
         <v>41</v>
       </c>
       <c r="E128" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F128" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G128" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H128" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="I128" t="s">
         <v>17</v>
@@ -8421,10 +8261,10 @@
         <v>18</v>
       </c>
       <c r="L128">
-        <v>651</v>
+        <v>180</v>
       </c>
       <c r="M128">
-        <v>149</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
@@ -8432,22 +8272,22 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C129" t="s">
         <v>41</v>
       </c>
       <c r="E129" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F129" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G129" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H129" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I129" t="s">
         <v>17</v>
@@ -8456,10 +8296,10 @@
         <v>18</v>
       </c>
       <c r="L129">
-        <v>115</v>
+        <v>225</v>
       </c>
       <c r="M129">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
@@ -8467,22 +8307,22 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C130" t="s">
         <v>41</v>
       </c>
       <c r="E130" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F130" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G130" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H130" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I130" t="s">
         <v>17</v>
@@ -8491,10 +8331,10 @@
         <v>18</v>
       </c>
       <c r="L130">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="M130">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
@@ -8502,22 +8342,22 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C131" t="s">
         <v>41</v>
       </c>
       <c r="E131" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F131" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G131" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H131" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I131" t="s">
         <v>17</v>
@@ -8526,10 +8366,10 @@
         <v>18</v>
       </c>
       <c r="L131">
-        <v>113</v>
+        <v>207</v>
       </c>
       <c r="M131">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
@@ -8537,22 +8377,22 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C132" t="s">
         <v>41</v>
       </c>
       <c r="E132" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F132" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G132" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H132" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="I132" t="s">
         <v>17</v>
@@ -8561,10 +8401,10 @@
         <v>18</v>
       </c>
       <c r="L132">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="M132">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
@@ -8572,22 +8412,22 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C133" t="s">
         <v>41</v>
       </c>
       <c r="E133" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="F133" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G133" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H133" t="s">
-        <v>356</v>
+        <v>314</v>
       </c>
       <c r="I133" t="s">
         <v>17</v>
@@ -8596,10 +8436,10 @@
         <v>18</v>
       </c>
       <c r="L133">
-        <v>225</v>
+        <v>94</v>
       </c>
       <c r="M133">
-        <v>56</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
@@ -8616,10 +8456,10 @@
         <v>358</v>
       </c>
       <c r="F134" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G134" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H134" t="s">
         <v>359</v>
@@ -8631,10 +8471,10 @@
         <v>18</v>
       </c>
       <c r="L134">
-        <v>100</v>
+        <v>266</v>
       </c>
       <c r="M134">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
@@ -8651,13 +8491,13 @@
         <v>361</v>
       </c>
       <c r="F135" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G135" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H135" t="s">
-        <v>362</v>
+        <v>314</v>
       </c>
       <c r="I135" t="s">
         <v>17</v>
@@ -8666,10 +8506,10 @@
         <v>18</v>
       </c>
       <c r="L135">
-        <v>207</v>
+        <v>566</v>
       </c>
       <c r="M135">
-        <v>49</v>
+        <v>117</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
@@ -8677,22 +8517,22 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
+        <v>362</v>
+      </c>
+      <c r="C136" t="s">
+        <v>41</v>
+      </c>
+      <c r="E136" t="s">
         <v>363</v>
       </c>
-      <c r="C136" t="s">
-        <v>41</v>
-      </c>
-      <c r="E136" t="s">
-        <v>364</v>
-      </c>
       <c r="F136" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G136" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H136" t="s">
-        <v>365</v>
+        <v>314</v>
       </c>
       <c r="I136" t="s">
         <v>17</v>
@@ -8701,10 +8541,10 @@
         <v>18</v>
       </c>
       <c r="L136">
-        <v>245</v>
+        <v>129</v>
       </c>
       <c r="M136">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
@@ -8712,22 +8552,22 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C137" t="s">
         <v>41</v>
       </c>
       <c r="E137" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="F137" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G137" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H137" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="I137" t="s">
         <v>17</v>
@@ -8736,10 +8576,10 @@
         <v>18</v>
       </c>
       <c r="L137">
-        <v>94</v>
+        <v>274</v>
       </c>
       <c r="M137">
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
@@ -8747,23 +8587,23 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
+        <v>366</v>
+      </c>
+      <c r="C138" t="s">
+        <v>41</v>
+      </c>
+      <c r="E138" t="s">
         <v>367</v>
       </c>
-      <c r="C138" t="s">
-        <v>41</v>
-      </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
+        <v>313</v>
+      </c>
+      <c r="G138" t="s">
+        <v>260</v>
+      </c>
+      <c r="H138" t="s">
         <v>368</v>
       </c>
-      <c r="F138" t="s">
-        <v>323</v>
-      </c>
-      <c r="G138" t="s">
-        <v>267</v>
-      </c>
-      <c r="H138" t="s">
-        <v>369</v>
-      </c>
       <c r="I138" t="s">
         <v>17</v>
       </c>
@@ -8771,10 +8611,10 @@
         <v>18</v>
       </c>
       <c r="L138">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="M138">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
@@ -8782,22 +8622,22 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
+        <v>369</v>
+      </c>
+      <c r="C139" t="s">
+        <v>41</v>
+      </c>
+      <c r="E139" t="s">
         <v>370</v>
       </c>
-      <c r="C139" t="s">
-        <v>41</v>
-      </c>
-      <c r="E139" t="s">
+      <c r="F139" t="s">
         <v>371</v>
       </c>
-      <c r="F139" t="s">
-        <v>323</v>
-      </c>
       <c r="G139" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H139" t="s">
-        <v>324</v>
+        <v>372</v>
       </c>
       <c r="I139" t="s">
         <v>17</v>
@@ -8806,10 +8646,10 @@
         <v>18</v>
       </c>
       <c r="L139">
-        <v>566</v>
+        <v>69</v>
       </c>
       <c r="M139">
-        <v>117</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.2">
@@ -8817,22 +8657,22 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C140" t="s">
         <v>41</v>
       </c>
       <c r="E140" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F140" t="s">
-        <v>323</v>
+        <v>371</v>
       </c>
       <c r="G140" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H140" t="s">
-        <v>324</v>
+        <v>375</v>
       </c>
       <c r="I140" t="s">
         <v>17</v>
@@ -8841,10 +8681,10 @@
         <v>18</v>
       </c>
       <c r="L140">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="M140">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.2">
@@ -8852,22 +8692,22 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C141" t="s">
         <v>41</v>
       </c>
       <c r="E141" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F141" t="s">
-        <v>323</v>
+        <v>371</v>
       </c>
       <c r="G141" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H141" t="s">
-        <v>324</v>
+        <v>378</v>
       </c>
       <c r="I141" t="s">
         <v>17</v>
@@ -8876,10 +8716,10 @@
         <v>18</v>
       </c>
       <c r="L141">
-        <v>274</v>
+        <v>119</v>
       </c>
       <c r="M141">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
@@ -8887,22 +8727,22 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C142" t="s">
         <v>41</v>
       </c>
       <c r="E142" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F142" t="s">
-        <v>323</v>
+        <v>371</v>
       </c>
       <c r="G142" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H142" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I142" t="s">
         <v>17</v>
@@ -8911,10 +8751,10 @@
         <v>18</v>
       </c>
       <c r="L142">
-        <v>245</v>
+        <v>493</v>
       </c>
       <c r="M142">
-        <v>59</v>
+        <v>91</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
@@ -8922,22 +8762,22 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C143" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E143" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F143" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="G143" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H143" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="I143" t="s">
         <v>17</v>
@@ -8946,10 +8786,10 @@
         <v>18</v>
       </c>
       <c r="L143">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="M143">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.2">
@@ -8957,22 +8797,22 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C144" t="s">
         <v>41</v>
       </c>
       <c r="E144" t="s">
-        <v>384</v>
+        <v>258</v>
       </c>
       <c r="F144" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="G144" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H144" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I144" t="s">
         <v>17</v>
@@ -8981,10 +8821,10 @@
         <v>18</v>
       </c>
       <c r="L144">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="M144">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.2">
@@ -8992,22 +8832,22 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C145" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E145" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F145" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="G145" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H145" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I145" t="s">
         <v>17</v>
@@ -9016,10 +8856,10 @@
         <v>18</v>
       </c>
       <c r="L145">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="M145">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.2">
@@ -9027,22 +8867,22 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C146" t="s">
         <v>41</v>
       </c>
       <c r="E146" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F146" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="G146" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H146" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I146" t="s">
         <v>17</v>
@@ -9051,10 +8891,10 @@
         <v>18</v>
       </c>
       <c r="L146">
-        <v>493</v>
+        <v>266</v>
       </c>
       <c r="M146">
-        <v>91</v>
+        <v>57</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
@@ -9062,22 +8902,22 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C147" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E147" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F147" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="G147" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H147" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I147" t="s">
         <v>17</v>
@@ -9086,10 +8926,10 @@
         <v>18</v>
       </c>
       <c r="L147">
-        <v>101</v>
+        <v>199</v>
       </c>
       <c r="M147">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.2">
@@ -9097,22 +8937,22 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C148" t="s">
         <v>41</v>
       </c>
       <c r="E148" t="s">
-        <v>265</v>
+        <v>397</v>
       </c>
       <c r="F148" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="G148" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H148" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="I148" t="s">
         <v>17</v>
@@ -9121,10 +8961,10 @@
         <v>18</v>
       </c>
       <c r="L148">
-        <v>113</v>
+        <v>1005</v>
       </c>
       <c r="M148">
-        <v>29</v>
+        <v>207</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.2">
@@ -9132,22 +8972,22 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C149" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E149" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F149" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="G149" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H149" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I149" t="s">
         <v>17</v>
@@ -9156,10 +8996,10 @@
         <v>18</v>
       </c>
       <c r="L149">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M149">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.2">
@@ -9173,17 +9013,17 @@
         <v>41</v>
       </c>
       <c r="E150" t="s">
+        <v>377</v>
+      </c>
+      <c r="F150" t="s">
+        <v>371</v>
+      </c>
+      <c r="G150" t="s">
+        <v>260</v>
+      </c>
+      <c r="H150" t="s">
         <v>401</v>
       </c>
-      <c r="F150" t="s">
-        <v>381</v>
-      </c>
-      <c r="G150" t="s">
-        <v>267</v>
-      </c>
-      <c r="H150" t="s">
-        <v>402</v>
-      </c>
       <c r="I150" t="s">
         <v>17</v>
       </c>
@@ -9191,10 +9031,10 @@
         <v>18</v>
       </c>
       <c r="L150">
-        <v>266</v>
+        <v>64</v>
       </c>
       <c r="M150">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.2">
@@ -9202,23 +9042,23 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
+        <v>402</v>
+      </c>
+      <c r="C151" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" t="s">
         <v>403</v>
       </c>
-      <c r="C151" t="s">
-        <v>41</v>
-      </c>
-      <c r="E151" t="s">
+      <c r="F151" t="s">
+        <v>371</v>
+      </c>
+      <c r="G151" t="s">
+        <v>260</v>
+      </c>
+      <c r="H151" t="s">
         <v>404</v>
       </c>
-      <c r="F151" t="s">
-        <v>381</v>
-      </c>
-      <c r="G151" t="s">
-        <v>267</v>
-      </c>
-      <c r="H151" t="s">
-        <v>405</v>
-      </c>
       <c r="I151" t="s">
         <v>17</v>
       </c>
@@ -9226,10 +9066,10 @@
         <v>18</v>
       </c>
       <c r="L151">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="M151">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.2">
@@ -9237,22 +9077,22 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
+        <v>405</v>
+      </c>
+      <c r="C152" t="s">
+        <v>41</v>
+      </c>
+      <c r="E152" t="s">
         <v>406</v>
       </c>
-      <c r="C152" t="s">
-        <v>41</v>
-      </c>
-      <c r="E152" t="s">
-        <v>407</v>
-      </c>
       <c r="F152" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="G152" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H152" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="I152" t="s">
         <v>17</v>
@@ -9261,10 +9101,10 @@
         <v>18</v>
       </c>
       <c r="L152">
-        <v>1005</v>
+        <v>399</v>
       </c>
       <c r="M152">
-        <v>207</v>
+        <v>89</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
@@ -9272,22 +9112,22 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
+        <v>407</v>
+      </c>
+      <c r="C153" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153" t="s">
         <v>408</v>
       </c>
-      <c r="C153" t="s">
-        <v>41</v>
-      </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
         <v>409</v>
       </c>
-      <c r="F153" t="s">
-        <v>381</v>
-      </c>
       <c r="G153" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H153" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="I153" t="s">
         <v>17</v>
@@ -9296,10 +9136,10 @@
         <v>18</v>
       </c>
       <c r="L153">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="M153">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
@@ -9307,22 +9147,22 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C154" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E154" t="s">
-        <v>387</v>
+        <v>258</v>
       </c>
       <c r="F154" t="s">
-        <v>381</v>
+        <v>409</v>
       </c>
       <c r="G154" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H154" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I154" t="s">
         <v>17</v>
@@ -9331,10 +9171,10 @@
         <v>18</v>
       </c>
       <c r="L154">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="M154">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.2">
@@ -9342,23 +9182,23 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
+        <v>413</v>
+      </c>
+      <c r="C155" t="s">
+        <v>41</v>
+      </c>
+      <c r="E155" t="s">
+        <v>258</v>
+      </c>
+      <c r="F155" t="s">
+        <v>409</v>
+      </c>
+      <c r="G155" t="s">
+        <v>260</v>
+      </c>
+      <c r="H155" t="s">
         <v>412</v>
       </c>
-      <c r="C155" t="s">
-        <v>12</v>
-      </c>
-      <c r="E155" t="s">
-        <v>413</v>
-      </c>
-      <c r="F155" t="s">
-        <v>381</v>
-      </c>
-      <c r="G155" t="s">
-        <v>267</v>
-      </c>
-      <c r="H155" t="s">
-        <v>414</v>
-      </c>
       <c r="I155" t="s">
         <v>17</v>
       </c>
@@ -9366,10 +9206,10 @@
         <v>18</v>
       </c>
       <c r="L155">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="M155">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.2">
@@ -9377,22 +9217,22 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C156" t="s">
         <v>41</v>
       </c>
       <c r="E156" t="s">
-        <v>416</v>
+        <v>343</v>
       </c>
       <c r="F156" t="s">
-        <v>381</v>
+        <v>409</v>
       </c>
       <c r="G156" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H156" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="I156" t="s">
         <v>17</v>
@@ -9401,10 +9241,10 @@
         <v>18</v>
       </c>
       <c r="L156">
-        <v>399</v>
+        <v>183</v>
       </c>
       <c r="M156">
-        <v>89</v>
+        <v>38</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.2">
@@ -9412,23 +9252,23 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
+        <v>415</v>
+      </c>
+      <c r="C157" t="s">
+        <v>41</v>
+      </c>
+      <c r="E157" t="s">
+        <v>416</v>
+      </c>
+      <c r="F157" t="s">
+        <v>409</v>
+      </c>
+      <c r="G157" t="s">
+        <v>260</v>
+      </c>
+      <c r="H157" t="s">
         <v>417</v>
       </c>
-      <c r="C157" t="s">
-        <v>12</v>
-      </c>
-      <c r="E157" t="s">
-        <v>418</v>
-      </c>
-      <c r="F157" t="s">
-        <v>419</v>
-      </c>
-      <c r="G157" t="s">
-        <v>267</v>
-      </c>
-      <c r="H157" t="s">
-        <v>420</v>
-      </c>
       <c r="I157" t="s">
         <v>17</v>
       </c>
@@ -9436,10 +9276,10 @@
         <v>18</v>
       </c>
       <c r="L157">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="M157">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.2">
@@ -9447,22 +9287,22 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C158" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E158" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="F158" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="G158" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H158" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I158" t="s">
         <v>17</v>
@@ -9471,10 +9311,10 @@
         <v>18</v>
       </c>
       <c r="L158">
-        <v>86</v>
+        <v>379</v>
       </c>
       <c r="M158">
-        <v>19</v>
+        <v>82</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.2">
@@ -9482,22 +9322,22 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C159" t="s">
         <v>41</v>
       </c>
       <c r="E159" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F159" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="G159" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H159" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="I159" t="s">
         <v>17</v>
@@ -9506,10 +9346,10 @@
         <v>18</v>
       </c>
       <c r="L159">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="M159">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.2">
@@ -9517,22 +9357,22 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C160" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E160" t="s">
-        <v>425</v>
+        <v>258</v>
       </c>
       <c r="F160" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="G160" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H160" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="I160" t="s">
         <v>17</v>
@@ -9541,10 +9381,10 @@
         <v>18</v>
       </c>
       <c r="L160">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="M160">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.2">
@@ -9552,22 +9392,22 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C161" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E161" t="s">
-        <v>353</v>
+        <v>258</v>
       </c>
       <c r="F161" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="G161" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H161" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="I161" t="s">
         <v>17</v>
@@ -9576,10 +9416,10 @@
         <v>18</v>
       </c>
       <c r="L161">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="M161">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
@@ -9587,22 +9427,22 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C162" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E162" t="s">
-        <v>429</v>
+        <v>258</v>
       </c>
       <c r="F162" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="G162" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H162" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="I162" t="s">
         <v>17</v>
@@ -9611,10 +9451,10 @@
         <v>18</v>
       </c>
       <c r="L162">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M162">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.2">
@@ -9622,22 +9462,22 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C163" t="s">
         <v>41</v>
       </c>
       <c r="E163" t="s">
-        <v>432</v>
+        <v>258</v>
       </c>
       <c r="F163" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="G163" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H163" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="I163" t="s">
         <v>17</v>
@@ -9646,10 +9486,10 @@
         <v>18</v>
       </c>
       <c r="L163">
-        <v>379</v>
+        <v>66</v>
       </c>
       <c r="M163">
-        <v>82</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.2">
@@ -9657,22 +9497,22 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C164" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E164" t="s">
-        <v>265</v>
+        <v>427</v>
       </c>
       <c r="F164" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="G164" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H164" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="I164" t="s">
         <v>17</v>
@@ -9681,10 +9521,10 @@
         <v>18</v>
       </c>
       <c r="L164">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="M164">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.2">
@@ -9692,22 +9532,22 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C165" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E165" t="s">
-        <v>265</v>
+        <v>430</v>
       </c>
       <c r="F165" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="G165" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H165" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="I165" t="s">
         <v>17</v>
@@ -9716,7 +9556,7 @@
         <v>18</v>
       </c>
       <c r="L165">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M165">
         <v>11</v>
@@ -9727,22 +9567,22 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C166" t="s">
         <v>12</v>
       </c>
       <c r="E166" t="s">
-        <v>265</v>
+        <v>433</v>
       </c>
       <c r="F166" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="G166" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H166" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="I166" t="s">
         <v>17</v>
@@ -9751,10 +9591,10 @@
         <v>18</v>
       </c>
       <c r="L166">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="M166">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.2">
@@ -9762,23 +9602,23 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
+        <v>435</v>
+      </c>
+      <c r="C167" t="s">
+        <v>41</v>
+      </c>
+      <c r="E167" t="s">
+        <v>436</v>
+      </c>
+      <c r="F167" t="s">
+        <v>409</v>
+      </c>
+      <c r="G167" t="s">
+        <v>260</v>
+      </c>
+      <c r="H167" t="s">
         <v>437</v>
       </c>
-      <c r="C167" t="s">
-        <v>12</v>
-      </c>
-      <c r="E167" t="s">
-        <v>265</v>
-      </c>
-      <c r="F167" t="s">
-        <v>419</v>
-      </c>
-      <c r="G167" t="s">
-        <v>267</v>
-      </c>
-      <c r="H167" t="s">
-        <v>422</v>
-      </c>
       <c r="I167" t="s">
         <v>17</v>
       </c>
@@ -9786,7 +9626,7 @@
         <v>18</v>
       </c>
       <c r="L167">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="M167">
         <v>16</v>
@@ -9803,16 +9643,16 @@
         <v>41</v>
       </c>
       <c r="E168" t="s">
-        <v>265</v>
+        <v>439</v>
       </c>
       <c r="F168" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="G168" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H168" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="I168" t="s">
         <v>17</v>
@@ -9821,10 +9661,10 @@
         <v>18</v>
       </c>
       <c r="L168">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="M168">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.2">
@@ -9832,22 +9672,22 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C169" t="s">
         <v>12</v>
       </c>
       <c r="E169" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F169" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="G169" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H169" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="I169" t="s">
         <v>17</v>
@@ -9856,10 +9696,10 @@
         <v>18</v>
       </c>
       <c r="L169">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="M169">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.2">
@@ -9867,22 +9707,22 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C170" t="s">
         <v>12</v>
       </c>
       <c r="E170" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F170" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="G170" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H170" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="I170" t="s">
         <v>17</v>
@@ -9891,7 +9731,7 @@
         <v>18</v>
       </c>
       <c r="L170">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M170">
         <v>11</v>
@@ -9902,22 +9742,22 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C171" t="s">
         <v>12</v>
       </c>
       <c r="E171" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F171" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="G171" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H171" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="I171" t="s">
         <v>17</v>
@@ -9926,10 +9766,10 @@
         <v>18</v>
       </c>
       <c r="L171">
-        <v>68</v>
+        <v>624</v>
       </c>
       <c r="M171">
-        <v>14</v>
+        <v>131</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.2">
@@ -9937,22 +9777,22 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C172" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E172" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F172" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="G172" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H172" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="I172" t="s">
         <v>17</v>
@@ -9961,10 +9801,10 @@
         <v>18</v>
       </c>
       <c r="L172">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="M172">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.2">
@@ -9972,22 +9812,22 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C173" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E173" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F173" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="G173" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H173" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="I173" t="s">
         <v>17</v>
@@ -9996,10 +9836,10 @@
         <v>18</v>
       </c>
       <c r="L173">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="M173">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.2">
@@ -10007,22 +9847,22 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C174" t="s">
         <v>12</v>
       </c>
       <c r="E174" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F174" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="G174" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H174" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="I174" t="s">
         <v>17</v>
@@ -10031,10 +9871,10 @@
         <v>18</v>
       </c>
       <c r="L174">
-        <v>49</v>
+        <v>254</v>
       </c>
       <c r="M174">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.2">
@@ -10042,22 +9882,22 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C175" t="s">
         <v>12</v>
       </c>
       <c r="E175" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F175" t="s">
-        <v>419</v>
+        <v>461</v>
       </c>
       <c r="G175" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H175" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="I175" t="s">
         <v>17</v>
@@ -10066,10 +9906,10 @@
         <v>18</v>
       </c>
       <c r="L175">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="M175">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.2">
@@ -10077,22 +9917,22 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C176" t="s">
         <v>12</v>
       </c>
       <c r="E176" t="s">
+        <v>464</v>
+      </c>
+      <c r="F176" t="s">
         <v>461</v>
       </c>
-      <c r="F176" t="s">
-        <v>419</v>
-      </c>
       <c r="G176" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H176" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="I176" t="s">
         <v>17</v>
@@ -10101,10 +9941,10 @@
         <v>18</v>
       </c>
       <c r="L176">
-        <v>624</v>
+        <v>369</v>
       </c>
       <c r="M176">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.2">
@@ -10112,22 +9952,22 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C177" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E177" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="F177" t="s">
-        <v>419</v>
+        <v>461</v>
       </c>
       <c r="G177" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H177" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="I177" t="s">
         <v>17</v>
@@ -10136,7 +9976,7 @@
         <v>18</v>
       </c>
       <c r="L177">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M177">
         <v>22</v>
@@ -10147,22 +9987,22 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C178" t="s">
         <v>12</v>
       </c>
       <c r="E178" t="s">
-        <v>467</v>
+        <v>343</v>
       </c>
       <c r="F178" t="s">
-        <v>419</v>
+        <v>461</v>
       </c>
       <c r="G178" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H178" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I178" t="s">
         <v>17</v>
@@ -10171,10 +10011,10 @@
         <v>18</v>
       </c>
       <c r="L178">
-        <v>90</v>
+        <v>774</v>
       </c>
       <c r="M178">
-        <v>18</v>
+        <v>180</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.2">
@@ -10182,22 +10022,22 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C179" t="s">
         <v>12</v>
       </c>
       <c r="E179" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F179" t="s">
-        <v>419</v>
+        <v>461</v>
       </c>
       <c r="G179" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H179" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="I179" t="s">
         <v>17</v>
@@ -10206,10 +10046,10 @@
         <v>18</v>
       </c>
       <c r="L179">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="M179">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.2">
@@ -10217,22 +10057,22 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C180" t="s">
         <v>12</v>
       </c>
       <c r="E180" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="F180" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="G180" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H180" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="I180" t="s">
         <v>17</v>
@@ -10241,10 +10081,10 @@
         <v>18</v>
       </c>
       <c r="L180">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="M180">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.2">
@@ -10252,22 +10092,22 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C181" t="s">
         <v>12</v>
       </c>
       <c r="E181" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="F181" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="G181" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H181" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="I181" t="s">
         <v>17</v>
@@ -10276,10 +10116,10 @@
         <v>18</v>
       </c>
       <c r="L181">
-        <v>369</v>
+        <v>108</v>
       </c>
       <c r="M181">
-        <v>85</v>
+        <v>23</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.2">
@@ -10287,22 +10127,22 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C182" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E182" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F182" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="G182" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H182" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="I182" t="s">
         <v>17</v>
@@ -10311,10 +10151,10 @@
         <v>18</v>
       </c>
       <c r="L182">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="M182">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.2">
@@ -10322,34 +10162,34 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C183" t="s">
+        <v>41</v>
+      </c>
+      <c r="E183" t="s">
+        <v>258</v>
+      </c>
+      <c r="F183" t="s">
+        <v>461</v>
+      </c>
+      <c r="G183" t="s">
+        <v>260</v>
+      </c>
+      <c r="H183" t="s">
+        <v>465</v>
+      </c>
+      <c r="I183" t="s">
+        <v>17</v>
+      </c>
+      <c r="J183" t="s">
+        <v>18</v>
+      </c>
+      <c r="L183">
+        <v>62</v>
+      </c>
+      <c r="M183">
         <v>12</v>
-      </c>
-      <c r="E183" t="s">
-        <v>353</v>
-      </c>
-      <c r="F183" t="s">
-        <v>474</v>
-      </c>
-      <c r="G183" t="s">
-        <v>267</v>
-      </c>
-      <c r="H183" t="s">
-        <v>478</v>
-      </c>
-      <c r="I183" t="s">
-        <v>17</v>
-      </c>
-      <c r="J183" t="s">
-        <v>18</v>
-      </c>
-      <c r="L183">
-        <v>774</v>
-      </c>
-      <c r="M183">
-        <v>180</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.2">
@@ -10357,22 +10197,22 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C184" t="s">
         <v>12</v>
       </c>
       <c r="E184" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F184" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="G184" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H184" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="I184" t="s">
         <v>17</v>
@@ -10381,10 +10221,10 @@
         <v>18</v>
       </c>
       <c r="L184">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="M184">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.2">
@@ -10392,22 +10232,22 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C185" t="s">
         <v>12</v>
       </c>
       <c r="E185" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="F185" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="G185" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H185" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="I185" t="s">
         <v>17</v>
@@ -10416,10 +10256,10 @@
         <v>18</v>
       </c>
       <c r="L185">
-        <v>178</v>
+        <v>225</v>
       </c>
       <c r="M185">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.2">
@@ -10427,22 +10267,22 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C186" t="s">
         <v>12</v>
       </c>
       <c r="E186" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="F186" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="G186" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H186" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="I186" t="s">
         <v>17</v>
@@ -10451,10 +10291,10 @@
         <v>18</v>
       </c>
       <c r="L186">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="M186">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.2">
@@ -10471,10 +10311,10 @@
         <v>489</v>
       </c>
       <c r="F187" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="G187" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H187" t="s">
         <v>490</v>
@@ -10486,10 +10326,10 @@
         <v>18</v>
       </c>
       <c r="L187">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="M187">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.2">
@@ -10503,16 +10343,16 @@
         <v>41</v>
       </c>
       <c r="E188" t="s">
-        <v>265</v>
+        <v>492</v>
       </c>
       <c r="F188" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="G188" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H188" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="I188" t="s">
         <v>17</v>
@@ -10521,10 +10361,10 @@
         <v>18</v>
       </c>
       <c r="L188">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="M188">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.2">
@@ -10532,22 +10372,22 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C189" t="s">
         <v>12</v>
       </c>
       <c r="E189" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F189" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="G189" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H189" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="I189" t="s">
         <v>17</v>
@@ -10556,10 +10396,10 @@
         <v>18</v>
       </c>
       <c r="L189">
-        <v>214</v>
+        <v>501</v>
       </c>
       <c r="M189">
-        <v>45</v>
+        <v>119</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.2">
@@ -10567,22 +10407,22 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C190" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E190" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F190" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="G190" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H190" t="s">
-        <v>497</v>
+        <v>465</v>
       </c>
       <c r="I190" t="s">
         <v>17</v>
@@ -10591,10 +10431,10 @@
         <v>18</v>
       </c>
       <c r="L190">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="M190">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.2">
@@ -10602,22 +10442,22 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C191" t="s">
         <v>12</v>
       </c>
       <c r="E191" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F191" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="G191" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H191" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I191" t="s">
         <v>17</v>
@@ -10626,10 +10466,10 @@
         <v>18</v>
       </c>
       <c r="L191">
-        <v>160</v>
+        <v>277</v>
       </c>
       <c r="M191">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.2">
@@ -10637,22 +10477,22 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C192" t="s">
         <v>12</v>
       </c>
       <c r="E192" t="s">
+        <v>503</v>
+      </c>
+      <c r="F192" t="s">
         <v>502</v>
       </c>
-      <c r="F192" t="s">
-        <v>474</v>
-      </c>
       <c r="G192" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H192" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I192" t="s">
         <v>17</v>
@@ -10661,10 +10501,10 @@
         <v>18</v>
       </c>
       <c r="L192">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M192">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.2">
@@ -10672,22 +10512,22 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C193" t="s">
         <v>41</v>
       </c>
       <c r="E193" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F193" t="s">
-        <v>474</v>
+        <v>502</v>
       </c>
       <c r="G193" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H193" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="I193" t="s">
         <v>17</v>
@@ -10696,10 +10536,10 @@
         <v>18</v>
       </c>
       <c r="L193">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="M193">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.2">
@@ -10707,22 +10547,19 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>507</v>
-      </c>
-      <c r="C194" t="s">
-        <v>12</v>
+        <v>509</v>
       </c>
       <c r="E194" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F194" t="s">
-        <v>474</v>
+        <v>511</v>
       </c>
       <c r="G194" t="s">
-        <v>267</v>
+        <v>512</v>
       </c>
       <c r="H194" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="I194" t="s">
         <v>17</v>
@@ -10731,10 +10568,10 @@
         <v>18</v>
       </c>
       <c r="L194">
-        <v>501</v>
+        <v>1502</v>
       </c>
       <c r="M194">
-        <v>119</v>
+        <v>269</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.2">
@@ -10742,22 +10579,22 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C195" t="s">
         <v>41</v>
       </c>
       <c r="E195" t="s">
+        <v>515</v>
+      </c>
+      <c r="F195" t="s">
         <v>511</v>
       </c>
-      <c r="F195" t="s">
-        <v>474</v>
-      </c>
       <c r="G195" t="s">
-        <v>267</v>
+        <v>512</v>
       </c>
       <c r="H195" t="s">
-        <v>478</v>
+        <v>516</v>
       </c>
       <c r="I195" t="s">
         <v>17</v>
@@ -10766,10 +10603,10 @@
         <v>18</v>
       </c>
       <c r="L195">
-        <v>205</v>
+        <v>599</v>
       </c>
       <c r="M195">
-        <v>41</v>
+        <v>127</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.2">
@@ -10777,22 +10614,22 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
+        <v>517</v>
+      </c>
+      <c r="C196" t="s">
+        <v>41</v>
+      </c>
+      <c r="E196" t="s">
+        <v>518</v>
+      </c>
+      <c r="F196" t="s">
+        <v>511</v>
+      </c>
+      <c r="G196" t="s">
         <v>512</v>
       </c>
-      <c r="C196" t="s">
-        <v>12</v>
-      </c>
-      <c r="E196" t="s">
-        <v>513</v>
-      </c>
-      <c r="F196" t="s">
-        <v>474</v>
-      </c>
-      <c r="G196" t="s">
-        <v>267</v>
-      </c>
       <c r="H196" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="I196" t="s">
         <v>17</v>
@@ -10801,10 +10638,10 @@
         <v>18</v>
       </c>
       <c r="L196">
-        <v>277</v>
+        <v>698</v>
       </c>
       <c r="M196">
-        <v>63</v>
+        <v>163</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.2">
@@ -10812,22 +10649,19 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>515</v>
-      </c>
-      <c r="C197" t="s">
-        <v>41</v>
+        <v>520</v>
       </c>
       <c r="E197" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="F197" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="G197" t="s">
-        <v>267</v>
+        <v>512</v>
       </c>
       <c r="H197" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="I197" t="s">
         <v>17</v>
@@ -10836,10 +10670,10 @@
         <v>18</v>
       </c>
       <c r="L197">
-        <v>34</v>
+        <v>944</v>
       </c>
       <c r="M197">
-        <v>8</v>
+        <v>209</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.2">
@@ -10847,22 +10681,22 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C198" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E198" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="F198" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="G198" t="s">
-        <v>267</v>
+        <v>512</v>
       </c>
       <c r="H198" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="I198" t="s">
         <v>17</v>
@@ -10871,10 +10705,10 @@
         <v>18</v>
       </c>
       <c r="L198">
-        <v>34</v>
+        <v>600</v>
       </c>
       <c r="M198">
-        <v>7</v>
+        <v>147</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.2">
@@ -10882,22 +10716,19 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>522</v>
-      </c>
-      <c r="C199" t="s">
-        <v>12</v>
+        <v>526</v>
       </c>
       <c r="E199" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="F199" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="G199" t="s">
-        <v>267</v>
+        <v>512</v>
       </c>
       <c r="H199" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="I199" t="s">
         <v>17</v>
@@ -10906,10 +10737,10 @@
         <v>18</v>
       </c>
       <c r="L199">
-        <v>46</v>
+        <v>860</v>
       </c>
       <c r="M199">
-        <v>11</v>
+        <v>195</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.2">
@@ -10917,22 +10748,22 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="C200" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E200" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="F200" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="G200" t="s">
-        <v>267</v>
+        <v>512</v>
       </c>
       <c r="H200" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="I200" t="s">
         <v>17</v>
@@ -10941,10 +10772,10 @@
         <v>18</v>
       </c>
       <c r="L200">
-        <v>50</v>
+        <v>893</v>
       </c>
       <c r="M200">
-        <v>11</v>
+        <v>213</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.2">
@@ -10952,28 +10783,34 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>526</v>
+        <v>532</v>
+      </c>
+      <c r="C201" t="s">
+        <v>12</v>
       </c>
       <c r="E201" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="F201" t="s">
-        <v>528</v>
+        <v>26</v>
       </c>
       <c r="G201" t="s">
-        <v>529</v>
+        <v>260</v>
       </c>
       <c r="H201" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="I201" t="s">
         <v>17</v>
       </c>
+      <c r="J201" t="s">
+        <v>18</v>
+      </c>
       <c r="L201">
-        <v>1502</v>
+        <v>1140</v>
       </c>
       <c r="M201">
-        <v>269</v>
+        <v>190</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.2">
@@ -10981,31 +10818,28 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>531</v>
-      </c>
-      <c r="C202" t="s">
-        <v>41</v>
-      </c>
-      <c r="E202" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="F202" t="s">
-        <v>528</v>
+        <v>26</v>
       </c>
       <c r="G202" t="s">
-        <v>529</v>
+        <v>260</v>
       </c>
       <c r="H202" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="I202" t="s">
         <v>17</v>
       </c>
+      <c r="J202" t="s">
+        <v>18</v>
+      </c>
       <c r="L202">
-        <v>599</v>
+        <v>937</v>
       </c>
       <c r="M202">
-        <v>127</v>
+        <v>237</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.2">
@@ -11013,31 +10847,34 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C203" t="s">
         <v>41</v>
       </c>
       <c r="E203" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="F203" t="s">
-        <v>528</v>
+        <v>26</v>
       </c>
       <c r="G203" t="s">
-        <v>529</v>
+        <v>260</v>
       </c>
       <c r="H203" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="I203" t="s">
         <v>17</v>
       </c>
+      <c r="J203" t="s">
+        <v>18</v>
+      </c>
       <c r="L203">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="M203">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.2">
@@ -11045,28 +10882,34 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>537</v>
+        <v>540</v>
+      </c>
+      <c r="C204" t="s">
+        <v>41</v>
       </c>
       <c r="E204" t="s">
         <v>538</v>
       </c>
       <c r="F204" t="s">
-        <v>528</v>
+        <v>26</v>
       </c>
       <c r="G204" t="s">
-        <v>529</v>
+        <v>260</v>
       </c>
       <c r="H204" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="I204" t="s">
         <v>17</v>
       </c>
+      <c r="J204" t="s">
+        <v>18</v>
+      </c>
       <c r="L204">
-        <v>944</v>
+        <v>624</v>
       </c>
       <c r="M204">
-        <v>209</v>
+        <v>134</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.2">
@@ -11074,31 +10917,34 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C205" t="s">
         <v>41</v>
       </c>
       <c r="E205" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F205" t="s">
-        <v>528</v>
+        <v>26</v>
       </c>
       <c r="G205" t="s">
-        <v>529</v>
+        <v>260</v>
       </c>
       <c r="H205" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="I205" t="s">
         <v>17</v>
       </c>
+      <c r="J205" t="s">
+        <v>18</v>
+      </c>
       <c r="L205">
-        <v>600</v>
+        <v>1725</v>
       </c>
       <c r="M205">
-        <v>147</v>
+        <v>400</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.2">
@@ -11106,28 +10952,34 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>543</v>
+        <v>544</v>
+      </c>
+      <c r="C206" t="s">
+        <v>41</v>
       </c>
       <c r="E206" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F206" t="s">
-        <v>528</v>
+        <v>26</v>
       </c>
       <c r="G206" t="s">
-        <v>529</v>
+        <v>260</v>
       </c>
       <c r="H206" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="I206" t="s">
         <v>17</v>
       </c>
+      <c r="J206" t="s">
+        <v>18</v>
+      </c>
       <c r="L206">
-        <v>860</v>
+        <v>697</v>
       </c>
       <c r="M206">
-        <v>195</v>
+        <v>148</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.2">
@@ -11135,19 +10987,19 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C207" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E207" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="F207" t="s">
-        <v>528</v>
+        <v>26</v>
       </c>
       <c r="G207" t="s">
-        <v>529</v>
+        <v>260</v>
       </c>
       <c r="H207" t="s">
         <v>548</v>
@@ -11155,11 +11007,14 @@
       <c r="I207" t="s">
         <v>17</v>
       </c>
+      <c r="J207" t="s">
+        <v>18</v>
+      </c>
       <c r="L207">
-        <v>893</v>
+        <v>737</v>
       </c>
       <c r="M207">
-        <v>213</v>
+        <v>162</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.2">
@@ -11170,28 +11025,31 @@
         <v>549</v>
       </c>
       <c r="C208" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E208" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="F208" t="s">
         <v>26</v>
       </c>
       <c r="G208" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H208" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I208" t="s">
         <v>17</v>
       </c>
+      <c r="J208" t="s">
+        <v>18</v>
+      </c>
       <c r="L208">
-        <v>1140</v>
+        <v>1232</v>
       </c>
       <c r="M208">
-        <v>190</v>
+        <v>278</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.2">
@@ -11199,13 +11057,19 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
+        <v>551</v>
+      </c>
+      <c r="C209" t="s">
+        <v>12</v>
+      </c>
+      <c r="E209" t="s">
         <v>552</v>
       </c>
       <c r="F209" t="s">
         <v>26</v>
       </c>
       <c r="G209" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H209" t="s">
         <v>553</v>
@@ -11213,11 +11077,14 @@
       <c r="I209" t="s">
         <v>17</v>
       </c>
+      <c r="J209" t="s">
+        <v>18</v>
+      </c>
       <c r="L209">
-        <v>937</v>
+        <v>654</v>
       </c>
       <c r="M209">
-        <v>237</v>
+        <v>141</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.2">
@@ -11228,28 +11095,31 @@
         <v>554</v>
       </c>
       <c r="C210" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E210" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F210" t="s">
         <v>26</v>
       </c>
       <c r="G210" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H210" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I210" t="s">
         <v>17</v>
       </c>
+      <c r="J210" t="s">
+        <v>18</v>
+      </c>
       <c r="L210">
-        <v>682</v>
+        <v>878</v>
       </c>
       <c r="M210">
-        <v>146</v>
+        <v>184</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.2">
@@ -11257,31 +11127,34 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C211" t="s">
         <v>41</v>
       </c>
       <c r="E211" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="F211" t="s">
         <v>26</v>
       </c>
       <c r="G211" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H211" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I211" t="s">
         <v>17</v>
       </c>
+      <c r="J211" t="s">
+        <v>18</v>
+      </c>
       <c r="L211">
-        <v>1755</v>
+        <v>572</v>
       </c>
       <c r="M211">
-        <v>395</v>
+        <v>123</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.2">
@@ -11289,31 +11162,34 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C212" t="s">
         <v>41</v>
       </c>
       <c r="E212" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="F212" t="s">
         <v>26</v>
       </c>
       <c r="G212" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H212" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I212" t="s">
         <v>17</v>
       </c>
+      <c r="J212" t="s">
+        <v>18</v>
+      </c>
       <c r="L212">
-        <v>624</v>
+        <v>658</v>
       </c>
       <c r="M212">
-        <v>134</v>
+        <v>149</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.2">
@@ -11321,31 +11197,34 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C213" t="s">
         <v>41</v>
       </c>
       <c r="E213" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="F213" t="s">
         <v>26</v>
       </c>
       <c r="G213" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H213" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I213" t="s">
         <v>17</v>
       </c>
+      <c r="J213" t="s">
+        <v>18</v>
+      </c>
       <c r="L213">
-        <v>1725</v>
+        <v>1468</v>
       </c>
       <c r="M213">
-        <v>400</v>
+        <v>296</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.2">
@@ -11353,31 +11232,34 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C214" t="s">
         <v>41</v>
       </c>
       <c r="E214" t="s">
-        <v>564</v>
+        <v>538</v>
       </c>
       <c r="F214" t="s">
         <v>26</v>
       </c>
       <c r="G214" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H214" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="I214" t="s">
         <v>17</v>
       </c>
+      <c r="J214" t="s">
+        <v>18</v>
+      </c>
       <c r="L214">
-        <v>697</v>
+        <v>1219</v>
       </c>
       <c r="M214">
-        <v>148</v>
+        <v>252</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.2">
@@ -11385,31 +11267,34 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C215" t="s">
         <v>41</v>
       </c>
       <c r="E215" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="F215" t="s">
         <v>26</v>
       </c>
       <c r="G215" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H215" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I215" t="s">
         <v>17</v>
       </c>
+      <c r="J215" t="s">
+        <v>18</v>
+      </c>
       <c r="L215">
-        <v>737</v>
+        <v>1068</v>
       </c>
       <c r="M215">
-        <v>162</v>
+        <v>231</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.2">
@@ -11417,31 +11302,34 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C216" t="s">
         <v>41</v>
       </c>
       <c r="E216" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="F216" t="s">
         <v>26</v>
       </c>
       <c r="G216" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H216" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I216" t="s">
         <v>17</v>
       </c>
+      <c r="J216" t="s">
+        <v>18</v>
+      </c>
       <c r="L216">
-        <v>1232</v>
+        <v>552</v>
       </c>
       <c r="M216">
-        <v>278</v>
+        <v>132</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.2">
@@ -11449,31 +11337,34 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C217" t="s">
         <v>12</v>
       </c>
       <c r="E217" t="s">
-        <v>571</v>
+        <v>258</v>
       </c>
       <c r="F217" t="s">
         <v>26</v>
       </c>
       <c r="G217" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H217" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="I217" t="s">
         <v>17</v>
       </c>
+      <c r="J217" t="s">
+        <v>18</v>
+      </c>
       <c r="L217">
-        <v>654</v>
+        <v>872</v>
       </c>
       <c r="M217">
-        <v>141</v>
+        <v>179</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.2">
@@ -11481,31 +11372,34 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C218" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E218" t="s">
-        <v>571</v>
+        <v>258</v>
       </c>
       <c r="F218" t="s">
         <v>26</v>
       </c>
       <c r="G218" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H218" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I218" t="s">
         <v>17</v>
       </c>
+      <c r="J218" t="s">
+        <v>18</v>
+      </c>
       <c r="L218">
-        <v>878</v>
+        <v>622</v>
       </c>
       <c r="M218">
-        <v>184</v>
+        <v>142</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.2">
@@ -11513,31 +11407,34 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C219" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E219" t="s">
-        <v>576</v>
+        <v>258</v>
       </c>
       <c r="F219" t="s">
         <v>26</v>
       </c>
       <c r="G219" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H219" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I219" t="s">
         <v>17</v>
       </c>
+      <c r="J219" t="s">
+        <v>18</v>
+      </c>
       <c r="L219">
-        <v>1610</v>
+        <v>606</v>
       </c>
       <c r="M219">
-        <v>385</v>
+        <v>133</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.2">
@@ -11545,31 +11442,34 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C220" t="s">
         <v>41</v>
       </c>
       <c r="E220" t="s">
-        <v>555</v>
+        <v>258</v>
       </c>
       <c r="F220" t="s">
         <v>26</v>
       </c>
       <c r="G220" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H220" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="I220" t="s">
         <v>17</v>
       </c>
+      <c r="J220" t="s">
+        <v>18</v>
+      </c>
       <c r="L220">
-        <v>572</v>
+        <v>778</v>
       </c>
       <c r="M220">
-        <v>123</v>
+        <v>169</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.2">
@@ -11577,31 +11477,34 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C221" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E221" t="s">
-        <v>555</v>
+        <v>258</v>
       </c>
       <c r="F221" t="s">
         <v>26</v>
       </c>
       <c r="G221" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H221" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="I221" t="s">
         <v>17</v>
       </c>
+      <c r="J221" t="s">
+        <v>18</v>
+      </c>
       <c r="L221">
-        <v>1665</v>
+        <v>714</v>
       </c>
       <c r="M221">
-        <v>392</v>
+        <v>155</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.2">
@@ -11609,31 +11512,34 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C222" t="s">
         <v>41</v>
       </c>
       <c r="E222" t="s">
-        <v>555</v>
+        <v>580</v>
       </c>
       <c r="F222" t="s">
         <v>26</v>
       </c>
       <c r="G222" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H222" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I222" t="s">
         <v>17</v>
       </c>
+      <c r="J222" t="s">
+        <v>18</v>
+      </c>
       <c r="L222">
-        <v>1752</v>
+        <v>730</v>
       </c>
       <c r="M222">
-        <v>390</v>
+        <v>167</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.2">
@@ -11641,31 +11547,34 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C223" t="s">
         <v>41</v>
       </c>
       <c r="E223" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
       <c r="F223" t="s">
         <v>26</v>
       </c>
       <c r="G223" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H223" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I223" t="s">
         <v>17</v>
       </c>
+      <c r="J223" t="s">
+        <v>18</v>
+      </c>
       <c r="L223">
-        <v>658</v>
+        <v>784</v>
       </c>
       <c r="M223">
-        <v>149</v>
+        <v>170</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.2">
@@ -11673,31 +11582,34 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C224" t="s">
         <v>41</v>
       </c>
       <c r="E224" t="s">
-        <v>555</v>
+        <v>258</v>
       </c>
       <c r="F224" t="s">
         <v>26</v>
       </c>
       <c r="G224" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H224" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I224" t="s">
         <v>17</v>
       </c>
+      <c r="J224" t="s">
+        <v>18</v>
+      </c>
       <c r="L224">
-        <v>1468</v>
+        <v>714</v>
       </c>
       <c r="M224">
-        <v>296</v>
+        <v>175</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.2">
@@ -11711,13 +11623,13 @@
         <v>41</v>
       </c>
       <c r="E225" t="s">
-        <v>555</v>
+        <v>258</v>
       </c>
       <c r="F225" t="s">
         <v>26</v>
       </c>
       <c r="G225" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H225" t="s">
         <v>589</v>
@@ -11725,11 +11637,14 @@
       <c r="I225" t="s">
         <v>17</v>
       </c>
+      <c r="J225" t="s">
+        <v>18</v>
+      </c>
       <c r="L225">
-        <v>1219</v>
+        <v>603</v>
       </c>
       <c r="M225">
-        <v>252</v>
+        <v>140</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.2">
@@ -11743,13 +11658,13 @@
         <v>41</v>
       </c>
       <c r="E226" t="s">
-        <v>555</v>
+        <v>258</v>
       </c>
       <c r="F226" t="s">
         <v>26</v>
       </c>
       <c r="G226" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H226" t="s">
         <v>591</v>
@@ -11757,11 +11672,14 @@
       <c r="I226" t="s">
         <v>17</v>
       </c>
+      <c r="J226" t="s">
+        <v>18</v>
+      </c>
       <c r="L226">
-        <v>1068</v>
+        <v>1315</v>
       </c>
       <c r="M226">
-        <v>231</v>
+        <v>298</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.2">
@@ -11775,25 +11693,28 @@
         <v>41</v>
       </c>
       <c r="E227" t="s">
-        <v>593</v>
+        <v>258</v>
       </c>
       <c r="F227" t="s">
         <v>26</v>
       </c>
       <c r="G227" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H227" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I227" t="s">
         <v>17</v>
       </c>
+      <c r="J227" t="s">
+        <v>18</v>
+      </c>
       <c r="L227">
-        <v>552</v>
+        <v>583</v>
       </c>
       <c r="M227">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.2">
@@ -11801,31 +11722,34 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C228" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E228" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F228" t="s">
         <v>26</v>
       </c>
       <c r="G228" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H228" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I228" t="s">
         <v>17</v>
       </c>
+      <c r="J228" t="s">
+        <v>18</v>
+      </c>
       <c r="L228">
-        <v>872</v>
+        <v>481</v>
       </c>
       <c r="M228">
-        <v>179</v>
+        <v>109</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.2">
@@ -11833,31 +11757,34 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C229" t="s">
         <v>41</v>
       </c>
       <c r="E229" t="s">
-        <v>265</v>
+        <v>587</v>
       </c>
       <c r="F229" t="s">
         <v>26</v>
       </c>
       <c r="G229" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H229" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I229" t="s">
         <v>17</v>
       </c>
+      <c r="J229" t="s">
+        <v>18</v>
+      </c>
       <c r="L229">
-        <v>622</v>
+        <v>505</v>
       </c>
       <c r="M229">
-        <v>142</v>
+        <v>109</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.2">
@@ -11865,19 +11792,19 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
+        <v>598</v>
+      </c>
+      <c r="C230" t="s">
+        <v>41</v>
+      </c>
+      <c r="E230" t="s">
         <v>599</v>
-      </c>
-      <c r="C230" t="s">
-        <v>41</v>
-      </c>
-      <c r="E230" t="s">
-        <v>265</v>
       </c>
       <c r="F230" t="s">
         <v>26</v>
       </c>
       <c r="G230" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H230" t="s">
         <v>600</v>
@@ -11885,11 +11812,14 @@
       <c r="I230" t="s">
         <v>17</v>
       </c>
+      <c r="J230" t="s">
+        <v>18</v>
+      </c>
       <c r="L230">
-        <v>606</v>
+        <v>516</v>
       </c>
       <c r="M230">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.2">
@@ -11903,13 +11833,13 @@
         <v>41</v>
       </c>
       <c r="E231" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F231" t="s">
         <v>26</v>
       </c>
       <c r="G231" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H231" t="s">
         <v>602</v>
@@ -11917,11 +11847,14 @@
       <c r="I231" t="s">
         <v>17</v>
       </c>
+      <c r="J231" t="s">
+        <v>18</v>
+      </c>
       <c r="L231">
-        <v>778</v>
+        <v>431</v>
       </c>
       <c r="M231">
-        <v>169</v>
+        <v>106</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.2">
@@ -11932,16 +11865,16 @@
         <v>603</v>
       </c>
       <c r="C232" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E232" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F232" t="s">
         <v>26</v>
       </c>
       <c r="G232" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H232" t="s">
         <v>604</v>
@@ -11949,11 +11882,14 @@
       <c r="I232" t="s">
         <v>17</v>
       </c>
+      <c r="J232" t="s">
+        <v>18</v>
+      </c>
       <c r="L232">
-        <v>714</v>
+        <v>502</v>
       </c>
       <c r="M232">
-        <v>155</v>
+        <v>113</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.2">
@@ -11967,25 +11903,28 @@
         <v>41</v>
       </c>
       <c r="E233" t="s">
-        <v>606</v>
+        <v>258</v>
       </c>
       <c r="F233" t="s">
         <v>26</v>
       </c>
       <c r="G233" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H233" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I233" t="s">
         <v>17</v>
       </c>
+      <c r="J233" t="s">
+        <v>18</v>
+      </c>
       <c r="L233">
-        <v>730</v>
+        <v>1067</v>
       </c>
       <c r="M233">
-        <v>167</v>
+        <v>228</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.2">
@@ -11993,31 +11932,34 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C234" t="s">
         <v>41</v>
       </c>
       <c r="E234" t="s">
-        <v>609</v>
+        <v>587</v>
       </c>
       <c r="F234" t="s">
         <v>26</v>
       </c>
       <c r="G234" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H234" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="I234" t="s">
         <v>17</v>
       </c>
+      <c r="J234" t="s">
+        <v>18</v>
+      </c>
       <c r="L234">
-        <v>784</v>
+        <v>1278</v>
       </c>
       <c r="M234">
-        <v>170</v>
+        <v>292</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.2">
@@ -12025,31 +11967,34 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C235" t="s">
         <v>41</v>
       </c>
       <c r="E235" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F235" t="s">
         <v>26</v>
       </c>
       <c r="G235" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H235" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="I235" t="s">
         <v>17</v>
       </c>
+      <c r="J235" t="s">
+        <v>18</v>
+      </c>
       <c r="L235">
-        <v>714</v>
+        <v>761</v>
       </c>
       <c r="M235">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.2">
@@ -12057,31 +12002,34 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C236" t="s">
         <v>41</v>
       </c>
       <c r="E236" t="s">
-        <v>614</v>
+        <v>258</v>
       </c>
       <c r="F236" t="s">
         <v>26</v>
       </c>
       <c r="G236" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H236" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="I236" t="s">
         <v>17</v>
       </c>
+      <c r="J236" t="s">
+        <v>18</v>
+      </c>
       <c r="L236">
-        <v>1797</v>
+        <v>763</v>
       </c>
       <c r="M236">
-        <v>400</v>
+        <v>169</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.2">
@@ -12089,31 +12037,34 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C237" t="s">
         <v>41</v>
       </c>
       <c r="E237" t="s">
-        <v>614</v>
+        <v>258</v>
       </c>
       <c r="F237" t="s">
         <v>26</v>
       </c>
       <c r="G237" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H237" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="I237" t="s">
         <v>17</v>
       </c>
+      <c r="J237" t="s">
+        <v>18</v>
+      </c>
       <c r="L237">
-        <v>1213</v>
+        <v>593</v>
       </c>
       <c r="M237">
-        <v>262</v>
+        <v>142</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.2">
@@ -12121,31 +12072,34 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C238" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E238" t="s">
-        <v>265</v>
+        <v>616</v>
       </c>
       <c r="F238" t="s">
         <v>26</v>
       </c>
       <c r="G238" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H238" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="I238" t="s">
         <v>17</v>
       </c>
+      <c r="J238" t="s">
+        <v>18</v>
+      </c>
       <c r="L238">
-        <v>603</v>
+        <v>1021</v>
       </c>
       <c r="M238">
-        <v>140</v>
+        <v>202</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.2">
@@ -12153,31 +12107,37 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="C239" t="s">
         <v>41</v>
       </c>
+      <c r="D239">
+        <v>39</v>
+      </c>
       <c r="E239" t="s">
-        <v>265</v>
+        <v>629</v>
       </c>
       <c r="F239" t="s">
-        <v>26</v>
+        <v>630</v>
       </c>
       <c r="G239" t="s">
-        <v>267</v>
+        <v>631</v>
       </c>
       <c r="H239" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="I239" t="s">
         <v>17</v>
       </c>
+      <c r="J239" t="s">
+        <v>18</v>
+      </c>
       <c r="L239">
-        <v>1315</v>
+        <v>237</v>
       </c>
       <c r="M239">
-        <v>298</v>
+        <v>53</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.2">
@@ -12185,31 +12145,37 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="C240" t="s">
-        <v>41</v>
+        <v>12</v>
+      </c>
+      <c r="D240">
+        <v>25</v>
       </c>
       <c r="E240" t="s">
-        <v>265</v>
+        <v>634</v>
       </c>
       <c r="F240" t="s">
-        <v>26</v>
+        <v>630</v>
       </c>
       <c r="G240" t="s">
-        <v>267</v>
+        <v>631</v>
       </c>
       <c r="H240" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="I240" t="s">
         <v>17</v>
       </c>
+      <c r="J240" t="s">
+        <v>18</v>
+      </c>
       <c r="L240">
-        <v>583</v>
+        <v>143</v>
       </c>
       <c r="M240">
-        <v>120</v>
+        <v>42</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.2">
@@ -12217,31 +12183,37 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="C241" t="s">
         <v>41</v>
       </c>
+      <c r="D241">
+        <v>18</v>
+      </c>
       <c r="E241" t="s">
-        <v>265</v>
+        <v>637</v>
       </c>
       <c r="F241" t="s">
-        <v>26</v>
+        <v>630</v>
       </c>
       <c r="G241" t="s">
-        <v>267</v>
+        <v>631</v>
       </c>
       <c r="H241" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="I241" t="s">
         <v>17</v>
       </c>
+      <c r="J241" t="s">
+        <v>18</v>
+      </c>
       <c r="L241">
-        <v>481</v>
+        <v>191</v>
       </c>
       <c r="M241">
-        <v>109</v>
+        <v>42</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.2">
@@ -12249,31 +12221,37 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
       <c r="C242" t="s">
-        <v>41</v>
+        <v>12</v>
+      </c>
+      <c r="D242">
+        <v>27</v>
       </c>
       <c r="E242" t="s">
-        <v>614</v>
+        <v>640</v>
       </c>
       <c r="F242" t="s">
-        <v>26</v>
+        <v>630</v>
       </c>
       <c r="G242" t="s">
-        <v>267</v>
+        <v>631</v>
       </c>
       <c r="H242" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="I242" t="s">
         <v>17</v>
       </c>
+      <c r="J242" t="s">
+        <v>18</v>
+      </c>
       <c r="L242">
-        <v>505</v>
+        <v>899</v>
       </c>
       <c r="M242">
-        <v>109</v>
+        <v>208</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.2">
@@ -12281,31 +12259,37 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="C243" t="s">
-        <v>41</v>
+        <v>12</v>
+      </c>
+      <c r="D243">
+        <v>23</v>
       </c>
       <c r="E243" t="s">
-        <v>629</v>
+        <v>643</v>
       </c>
       <c r="F243" t="s">
-        <v>26</v>
+        <v>630</v>
       </c>
       <c r="G243" t="s">
-        <v>267</v>
+        <v>631</v>
       </c>
       <c r="H243" t="s">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="I243" t="s">
         <v>17</v>
       </c>
+      <c r="J243" t="s">
+        <v>18</v>
+      </c>
       <c r="L243">
-        <v>516</v>
+        <v>152</v>
       </c>
       <c r="M243">
-        <v>113</v>
+        <v>37</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.2">
@@ -12313,31 +12297,37 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
+        <v>646</v>
+      </c>
+      <c r="C244" t="s">
+        <v>41</v>
+      </c>
+      <c r="D244">
+        <v>31</v>
+      </c>
+      <c r="E244" t="s">
+        <v>637</v>
+      </c>
+      <c r="F244" t="s">
+        <v>630</v>
+      </c>
+      <c r="G244" t="s">
         <v>631</v>
       </c>
-      <c r="C244" t="s">
-        <v>41</v>
-      </c>
-      <c r="E244" t="s">
-        <v>265</v>
-      </c>
-      <c r="F244" t="s">
-        <v>26</v>
-      </c>
-      <c r="G244" t="s">
-        <v>267</v>
-      </c>
       <c r="H244" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
       <c r="I244" t="s">
         <v>17</v>
       </c>
+      <c r="J244" t="s">
+        <v>18</v>
+      </c>
       <c r="L244">
-        <v>431</v>
+        <v>759</v>
       </c>
       <c r="M244">
-        <v>106</v>
+        <v>176</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.2">
@@ -12345,31 +12335,37 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>633</v>
+        <v>647</v>
       </c>
       <c r="C245" t="s">
         <v>41</v>
       </c>
+      <c r="D245">
+        <v>35</v>
+      </c>
       <c r="E245" t="s">
-        <v>265</v>
+        <v>648</v>
       </c>
       <c r="F245" t="s">
-        <v>26</v>
+        <v>630</v>
       </c>
       <c r="G245" t="s">
-        <v>267</v>
+        <v>631</v>
       </c>
       <c r="H245" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="I245" t="s">
         <v>17</v>
       </c>
+      <c r="J245" t="s">
+        <v>18</v>
+      </c>
       <c r="L245">
-        <v>502</v>
+        <v>850</v>
       </c>
       <c r="M245">
-        <v>113</v>
+        <v>199</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.2">
@@ -12377,31 +12373,37 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>635</v>
+        <v>650</v>
       </c>
       <c r="C246" t="s">
-        <v>41</v>
+        <v>12</v>
+      </c>
+      <c r="D246">
+        <v>17</v>
       </c>
       <c r="E246" t="s">
-        <v>265</v>
+        <v>651</v>
       </c>
       <c r="F246" t="s">
-        <v>26</v>
+        <v>630</v>
       </c>
       <c r="G246" t="s">
-        <v>267</v>
+        <v>631</v>
       </c>
       <c r="H246" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="I246" t="s">
         <v>17</v>
       </c>
+      <c r="J246" t="s">
+        <v>18</v>
+      </c>
       <c r="L246">
-        <v>1067</v>
+        <v>474</v>
       </c>
       <c r="M246">
-        <v>228</v>
+        <v>124</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.2">
@@ -12409,31 +12411,37 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
       <c r="C247" t="s">
-        <v>41</v>
+        <v>12</v>
+      </c>
+      <c r="D247">
+        <v>19</v>
       </c>
       <c r="E247" t="s">
-        <v>614</v>
+        <v>651</v>
       </c>
       <c r="F247" t="s">
-        <v>26</v>
+        <v>630</v>
       </c>
       <c r="G247" t="s">
-        <v>267</v>
+        <v>631</v>
       </c>
       <c r="H247" t="s">
-        <v>638</v>
+        <v>654</v>
       </c>
       <c r="I247" t="s">
         <v>17</v>
       </c>
+      <c r="J247" t="s">
+        <v>18</v>
+      </c>
       <c r="L247">
-        <v>1278</v>
+        <v>437</v>
       </c>
       <c r="M247">
-        <v>292</v>
+        <v>111</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.2">
@@ -12441,31 +12449,37 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="C248" t="s">
         <v>41</v>
       </c>
+      <c r="D248">
+        <v>27</v>
+      </c>
       <c r="E248" t="s">
-        <v>265</v>
+        <v>656</v>
       </c>
       <c r="F248" t="s">
-        <v>26</v>
+        <v>630</v>
       </c>
       <c r="G248" t="s">
-        <v>267</v>
+        <v>631</v>
       </c>
       <c r="H248" t="s">
-        <v>640</v>
+        <v>657</v>
       </c>
       <c r="I248" t="s">
         <v>17</v>
       </c>
+      <c r="J248" t="s">
+        <v>18</v>
+      </c>
       <c r="L248">
-        <v>761</v>
+        <v>647</v>
       </c>
       <c r="M248">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.2">
@@ -12473,31 +12487,37 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>641</v>
+        <v>658</v>
       </c>
       <c r="C249" t="s">
-        <v>41</v>
+        <v>12</v>
+      </c>
+      <c r="D249">
+        <v>13</v>
       </c>
       <c r="E249" t="s">
-        <v>265</v>
+        <v>651</v>
       </c>
       <c r="F249" t="s">
-        <v>26</v>
+        <v>630</v>
       </c>
       <c r="G249" t="s">
-        <v>267</v>
+        <v>631</v>
       </c>
       <c r="H249" t="s">
-        <v>642</v>
+        <v>659</v>
       </c>
       <c r="I249" t="s">
         <v>17</v>
       </c>
+      <c r="J249" t="s">
+        <v>18</v>
+      </c>
       <c r="L249">
-        <v>763</v>
+        <v>626</v>
       </c>
       <c r="M249">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.2">
@@ -12505,31 +12525,37 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>643</v>
+        <v>660</v>
       </c>
       <c r="C250" t="s">
-        <v>41</v>
+        <v>12</v>
+      </c>
+      <c r="D250">
+        <v>16</v>
       </c>
       <c r="E250" t="s">
-        <v>265</v>
+        <v>661</v>
       </c>
       <c r="F250" t="s">
-        <v>26</v>
+        <v>630</v>
       </c>
       <c r="G250" t="s">
-        <v>267</v>
+        <v>631</v>
       </c>
       <c r="H250" t="s">
-        <v>644</v>
+        <v>662</v>
       </c>
       <c r="I250" t="s">
         <v>17</v>
       </c>
+      <c r="J250" t="s">
+        <v>18</v>
+      </c>
       <c r="L250">
-        <v>593</v>
+        <v>301</v>
       </c>
       <c r="M250">
-        <v>142</v>
+        <v>73</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.2">
@@ -12537,31 +12563,37 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>645</v>
+        <v>663</v>
       </c>
       <c r="C251" t="s">
         <v>12</v>
       </c>
+      <c r="D251">
+        <v>90</v>
+      </c>
       <c r="E251" t="s">
-        <v>646</v>
+        <v>664</v>
       </c>
       <c r="F251" t="s">
-        <v>26</v>
+        <v>630</v>
       </c>
       <c r="G251" t="s">
-        <v>267</v>
+        <v>631</v>
       </c>
       <c r="H251" t="s">
-        <v>647</v>
+        <v>665</v>
       </c>
       <c r="I251" t="s">
         <v>17</v>
       </c>
+      <c r="J251" t="s">
+        <v>18</v>
+      </c>
       <c r="L251">
-        <v>1021</v>
+        <v>448</v>
       </c>
       <c r="M251">
-        <v>202</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
